--- a/data/trans_orig/P6703-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3906</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1007</v>
+        <v>1195</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9682</v>
+        <v>10661</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03079296339056103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007941739439771056</v>
+        <v>0.00941799649676615</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07632900803886206</v>
+        <v>0.08405406531192995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -764,19 +764,19 @@
         <v>7961</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3130</v>
+        <v>3221</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16788</v>
+        <v>16062</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09095614198790077</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03576280564096468</v>
+        <v>0.03679468494847718</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1917911709031755</v>
+        <v>0.1835056794052743</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -785,19 +785,19 @@
         <v>11867</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5804</v>
+        <v>5919</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20667</v>
+        <v>21043</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05535851578354774</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0270753317586202</v>
+        <v>0.02761301470504008</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09640681866204345</v>
+        <v>0.09816340559479486</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7595</v>
+        <v>7502</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01755696538608998</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05988091312399535</v>
+        <v>0.05914359851582666</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -835,19 +835,19 @@
         <v>3117</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8646</v>
+        <v>7864</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03560574254408361</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01145194172126202</v>
+        <v>0.01145868301185104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09877854223239282</v>
+        <v>0.08983962871812173</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -856,19 +856,19 @@
         <v>5344</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2056</v>
+        <v>2062</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11358</v>
+        <v>11606</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02492655906848959</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009588940055594375</v>
+        <v>0.009618484680152077</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05298292083517354</v>
+        <v>0.05413775714424342</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>23295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14949</v>
+        <v>15185</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32198</v>
+        <v>33497</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1836600127782183</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1178598985538237</v>
+        <v>0.119716842371053</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2538511510571348</v>
+        <v>0.2640884054264871</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -906,19 +906,19 @@
         <v>10794</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5312</v>
+        <v>5431</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18170</v>
+        <v>17979</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1233146424475464</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06068355466020373</v>
+        <v>0.06204653706260225</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2075815752080297</v>
+        <v>0.2054070865106956</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -927,19 +927,19 @@
         <v>34089</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23926</v>
+        <v>24902</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47013</v>
+        <v>47345</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1590200686945815</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1116090569277012</v>
+        <v>0.1161640895373245</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2193061172693328</v>
+        <v>0.2208534594090011</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>23261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14536</v>
+        <v>14568</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33706</v>
+        <v>33277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1833909387731828</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1146046440695314</v>
+        <v>0.1148541213599451</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2657399526185827</v>
+        <v>0.2623506929907822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -977,19 +977,19 @@
         <v>11154</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6075</v>
+        <v>5208</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20029</v>
+        <v>19212</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1274341779956148</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06940731797593196</v>
+        <v>0.05950102001452977</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2288201981497463</v>
+        <v>0.2194931820933764</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -998,19 +998,19 @@
         <v>34416</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24292</v>
+        <v>24671</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47408</v>
+        <v>48360</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1605429315589504</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1133193464328968</v>
+        <v>0.1150848964460109</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2211510174947028</v>
+        <v>0.2255889111478434</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>74151</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61713</v>
+        <v>62526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85519</v>
+        <v>85302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5845991196719479</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4865422292202827</v>
+        <v>0.4929506659156763</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6742236243145155</v>
+        <v>0.6725202198861258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>49</v>
@@ -1048,19 +1048,19 @@
         <v>54505</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44206</v>
+        <v>45088</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63243</v>
+        <v>64232</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6226892950248544</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5050308505029576</v>
+        <v>0.515111337155676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7225226850295738</v>
+        <v>0.7338162432388067</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>121</v>
@@ -1069,19 +1069,19 @@
         <v>128655</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>113316</v>
+        <v>111506</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>144375</v>
+        <v>143210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6001519248944308</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5285982628365048</v>
+        <v>0.52015343663392</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6734798921055297</v>
+        <v>0.6680486453546033</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>9061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4112</v>
+        <v>4081</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17856</v>
+        <v>17566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05226670973013613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02371712470297392</v>
+        <v>0.02354290499661452</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1029995935566637</v>
+        <v>0.1013245564859188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1194,19 +1194,19 @@
         <v>7197</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15681</v>
+        <v>15059</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05866487815078553</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02442722918372606</v>
+        <v>0.0244383238945721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1278144552344322</v>
+        <v>0.1227401758626951</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1215,19 +1215,19 @@
         <v>16259</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9344</v>
+        <v>9835</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26859</v>
+        <v>27230</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05491822220262556</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03156281264890738</v>
+        <v>0.03322188027499726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09072363059554932</v>
+        <v>0.09197658638097739</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>5126</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1811</v>
+        <v>1066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14182</v>
+        <v>13361</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02956966252248006</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0104482348246693</v>
+        <v>0.006146163077627827</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08180522940685524</v>
+        <v>0.077072427248968</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6524</v>
+        <v>7344</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01704455788614119</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05317757247807595</v>
+        <v>0.05985566448452029</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1286,19 +1286,19 @@
         <v>7217</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2864</v>
+        <v>2959</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16319</v>
+        <v>16310</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02437904092907147</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00967277394161694</v>
+        <v>0.00999354564709691</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05512257210213649</v>
+        <v>0.0550926792418309</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>10917</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5496</v>
+        <v>5455</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19359</v>
+        <v>20066</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06297102702181177</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03170264671475129</v>
+        <v>0.03146641180648183</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1116699193201062</v>
+        <v>0.115747906960497</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1336,19 +1336,19 @@
         <v>7076</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2907</v>
+        <v>3062</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13155</v>
+        <v>13794</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05767138096574363</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02369281011380974</v>
+        <v>0.02495823623793465</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1072264581480474</v>
+        <v>0.1124344443616335</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1357,19 +1357,19 @@
         <v>17992</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10947</v>
+        <v>10182</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28950</v>
+        <v>27671</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06077476135739248</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03697689409580177</v>
+        <v>0.03439290097483005</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09778807891590124</v>
+        <v>0.09346878958063978</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>23671</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15880</v>
+        <v>15589</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34940</v>
+        <v>34195</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.136541654308093</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09160011957607921</v>
+        <v>0.08992312971695687</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2015462959399387</v>
+        <v>0.1972434905881131</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1407,19 +1407,19 @@
         <v>20619</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12848</v>
+        <v>12851</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30463</v>
+        <v>30209</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1680591522119081</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1047245660601052</v>
+        <v>0.1047477103207278</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2482997092487128</v>
+        <v>0.246225444080811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -1428,19 +1428,19 @@
         <v>44290</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33239</v>
+        <v>32649</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59587</v>
+        <v>58439</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1496030545869471</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1122733526894236</v>
+        <v>0.110280651507926</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2012749820502638</v>
+        <v>0.1973953158706215</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>124587</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>109984</v>
+        <v>110564</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135507</v>
+        <v>137066</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.718650946417479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6344155817416958</v>
+        <v>0.6377621930710461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7816426469231973</v>
+        <v>0.7906358228157806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -1478,19 +1478,19 @@
         <v>85705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74718</v>
+        <v>74088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95645</v>
+        <v>95265</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6985600307854215</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.609004757318693</v>
+        <v>0.603871341878602</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7795799292149292</v>
+        <v>0.7764782508157487</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>193</v>
@@ -1499,19 +1499,19 @@
         <v>210292</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>192018</v>
+        <v>191472</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224964</v>
+        <v>223681</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7103249209239634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6485988939573138</v>
+        <v>0.6467552758138403</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7598836977428615</v>
+        <v>0.7555521163826809</v>
       </c>
     </row>
     <row r="15">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5660</v>
+        <v>6139</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01302393109910285</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03952819342940637</v>
+        <v>0.04286632857071529</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1624,19 +1624,19 @@
         <v>3862</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>980</v>
+        <v>1006</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10417</v>
+        <v>11720</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04689044051866394</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01189613095668716</v>
+        <v>0.01221358199778981</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1264673700516792</v>
+        <v>0.1422942013101691</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1645,19 +1645,19 @@
         <v>5727</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1933</v>
+        <v>1952</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13592</v>
+        <v>13269</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02539036994392432</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008567917054756421</v>
+        <v>0.008652973214247664</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06025909148599538</v>
+        <v>0.05882593566217297</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>2899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7556</v>
+        <v>7797</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02024770767849983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0</v>
+        <v>0.006509875586427111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0527637122384185</v>
+        <v>0.05444820946274393</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1695,19 +1695,19 @@
         <v>3016</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8220</v>
+        <v>8248</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03662138060189051</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01172185440417196</v>
+        <v>0.01163348285227176</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09980041020757401</v>
+        <v>0.1001443877110812</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1716,19 +1716,19 @@
         <v>5916</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11926</v>
+        <v>11835</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02622659444134013</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008891082064037839</v>
+        <v>0.00887944031269223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05286977300769971</v>
+        <v>0.05246708652774935</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>36705</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27126</v>
+        <v>27607</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48584</v>
+        <v>46999</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2563189501769889</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1894233650539375</v>
+        <v>0.1927826180623956</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3392724136302754</v>
+        <v>0.3282019330710397</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -1766,19 +1766,19 @@
         <v>20063</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13008</v>
+        <v>13253</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28715</v>
+        <v>30075</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2435777297939251</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1579335512563484</v>
+        <v>0.1608997327943116</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3486301972805519</v>
+        <v>0.3651346625678877</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>56</v>
@@ -1787,19 +1787,19 @@
         <v>56768</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>44062</v>
+        <v>43407</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>70932</v>
+        <v>69758</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2516664623541799</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1953404087834483</v>
+        <v>0.1924332585974819</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3144623054727235</v>
+        <v>0.3092571911193603</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>48529</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37663</v>
+        <v>38016</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60482</v>
+        <v>59626</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3388896719548977</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2630049432215071</v>
+        <v>0.265471987436155</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4223577414840275</v>
+        <v>0.4163801837799324</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1837,19 +1837,19 @@
         <v>18239</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11574</v>
+        <v>11475</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27662</v>
+        <v>26940</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.221439306623076</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1405188772728013</v>
+        <v>0.1393186802756597</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3358431519544314</v>
+        <v>0.3270759477294348</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -1858,19 +1858,19 @@
         <v>66768</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53726</v>
+        <v>54216</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82139</v>
+        <v>82769</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2960023834486015</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2381836002887044</v>
+        <v>0.240356076110806</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3641433391478989</v>
+        <v>0.366935918071099</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>53202</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41538</v>
+        <v>42735</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64401</v>
+        <v>65711</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3715197390905107</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2900678715443645</v>
+        <v>0.2984294537291554</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4497270175697182</v>
+        <v>0.4588712046808375</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -1908,19 +1908,19 @@
         <v>37186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27900</v>
+        <v>27228</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47447</v>
+        <v>46113</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4514711424624445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3387272338760915</v>
+        <v>0.3305741032188788</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5760563286469825</v>
+        <v>0.5598536353774819</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>90</v>
@@ -1929,19 +1929,19 @@
         <v>90388</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>75058</v>
+        <v>75112</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>105903</v>
+        <v>104918</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.400714189811954</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3327542532846132</v>
+        <v>0.3329911898803545</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4694959877372598</v>
+        <v>0.4651292022411351</v>
       </c>
     </row>
     <row r="21">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7180</v>
+        <v>7118</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01441781324541338</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05031900658328156</v>
+        <v>0.0498829740605545</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6953</v>
+        <v>6995</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02074796063415454</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06786838788612531</v>
+        <v>0.06827393771445303</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -2122,19 +2122,19 @@
         <v>4183</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1044</v>
+        <v>1012</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10118</v>
+        <v>10516</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01706330693503431</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004260320403483142</v>
+        <v>0.004126295310496316</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04127615773183453</v>
+        <v>0.0429000480605826</v>
       </c>
     </row>
     <row r="24">
@@ -2151,19 +2151,19 @@
         <v>29144</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20340</v>
+        <v>20213</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39846</v>
+        <v>39678</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2042472447116188</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1425464030395657</v>
+        <v>0.1416593598150915</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.279253898551701</v>
+        <v>0.2780726762528039</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -2172,19 +2172,19 @@
         <v>17811</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11187</v>
+        <v>10879</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>27409</v>
+        <v>26199</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.173854732748022</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1091961476617241</v>
+        <v>0.1061903766706199</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.267537503244882</v>
+        <v>0.2557318299288277</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -2193,19 +2193,19 @@
         <v>46955</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>35429</v>
+        <v>35070</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>61751</v>
+        <v>60002</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.191545613347643</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1445282640845495</v>
+        <v>0.1430611645866501</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2519039688917127</v>
+        <v>0.2447676406145052</v>
       </c>
     </row>
     <row r="25">
@@ -2222,19 +2222,19 @@
         <v>49639</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37508</v>
+        <v>37167</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>62569</v>
+        <v>61404</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3478817640030027</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2628634205887075</v>
+        <v>0.2604724480969881</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4385014973356816</v>
+        <v>0.4303318992762056</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2243,19 +2243,19 @@
         <v>41906</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31899</v>
+        <v>31071</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52128</v>
+        <v>51846</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4090486198111325</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3113694766479024</v>
+        <v>0.3032874269419474</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5088223564421633</v>
+        <v>0.5060709279169864</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -2264,19 +2264,19 @@
         <v>91545</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>75812</v>
+        <v>74914</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>106457</v>
+        <v>107824</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3734446018197285</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3092621459833038</v>
+        <v>0.3055996659418617</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4342745348364807</v>
+        <v>0.4398533349937586</v>
       </c>
     </row>
     <row r="26">
@@ -2293,19 +2293,19 @@
         <v>61849</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>49360</v>
+        <v>49901</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75506</v>
+        <v>75804</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4334531780399651</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.345926146485823</v>
+        <v>0.3497203332718955</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5291647382238791</v>
+        <v>0.5312502702464861</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>39</v>
@@ -2314,19 +2314,19 @@
         <v>40605</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30439</v>
+        <v>31007</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>50438</v>
+        <v>51357</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3963486868066909</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2971176308257741</v>
+        <v>0.3026654515003149</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4923257074876952</v>
+        <v>0.5012960406197166</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>93</v>
@@ -2335,19 +2335,19 @@
         <v>102454</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>86642</v>
+        <v>86995</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>117918</v>
+        <v>120131</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4179464778975941</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3534423294879591</v>
+        <v>0.3548818509992601</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4810274618820998</v>
+        <v>0.4900562210293924</v>
       </c>
     </row>
     <row r="27">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7689</v>
+        <v>7067</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02788346113116769</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09341607949376161</v>
+        <v>0.08585070085947386</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4802</v>
+        <v>4803</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01724025329691484</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08772263745498624</v>
+        <v>0.08773498340135925</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2481,19 +2481,19 @@
         <v>3239</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9401</v>
+        <v>10421</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02363236398703526</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006768822197828562</v>
+        <v>0.006816986329700026</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06859123210188682</v>
+        <v>0.07603526965170136</v>
       </c>
     </row>
     <row r="29">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7227</v>
+        <v>6440</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02519658202132714</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0877927839654446</v>
+        <v>0.0782396174645909</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5414</v>
+        <v>4967</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01822657574142155</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09890533710713392</v>
+        <v>0.09073313717400175</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2552,19 +2552,19 @@
         <v>3072</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>983</v>
+        <v>1005</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8243</v>
+        <v>8309</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02241263057994557</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007171065864856306</v>
+        <v>0.007330146280404272</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06014058823888234</v>
+        <v>0.06062220410562724</v>
       </c>
     </row>
     <row r="30">
@@ -2581,19 +2581,19 @@
         <v>21627</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14221</v>
+        <v>14091</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30809</v>
+        <v>29725</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.26273356539487</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1727621799855198</v>
+        <v>0.1711874963699251</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3742918193815023</v>
+        <v>0.3611115347948525</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -2602,19 +2602,19 @@
         <v>20428</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>13941</v>
+        <v>14390</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>28497</v>
+        <v>28305</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3731529504175206</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2546711096615087</v>
+        <v>0.2628639306355247</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5205536851930125</v>
+        <v>0.5170603234054043</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>40</v>
@@ -2623,19 +2623,19 @@
         <v>42054</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>32498</v>
+        <v>30446</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>53725</v>
+        <v>53155</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3068371420267175</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2371116220418704</v>
+        <v>0.2221433693753232</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3919873290902307</v>
+        <v>0.387834802884556</v>
       </c>
     </row>
     <row r="31">
@@ -2652,19 +2652,19 @@
         <v>27225</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19399</v>
+        <v>19293</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>36698</v>
+        <v>36514</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3307470146247808</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2356729546847267</v>
+        <v>0.2343814629827879</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4458268052622432</v>
+        <v>0.4435926184584446</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -2673,19 +2673,19 @@
         <v>12797</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7153</v>
+        <v>7032</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19312</v>
+        <v>20027</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2337667736003523</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1306635857622476</v>
+        <v>0.1284461319256433</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.352771705506345</v>
+        <v>0.3658304933938757</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>38</v>
@@ -2694,19 +2694,19 @@
         <v>40022</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>29324</v>
+        <v>30168</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>51437</v>
+        <v>52899</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2920112845632655</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2139558513032714</v>
+        <v>0.2201106611897483</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3752966479748169</v>
+        <v>0.3859604557118701</v>
       </c>
     </row>
     <row r="32">
@@ -2723,19 +2723,19 @@
         <v>29093</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20411</v>
+        <v>20616</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38837</v>
+        <v>38998</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3534393768278544</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2479644342030355</v>
+        <v>0.2504589503936651</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4718190237367552</v>
+        <v>0.4737736421825298</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -2744,19 +2744,19 @@
         <v>19577</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12577</v>
+        <v>13449</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27504</v>
+        <v>27828</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3576134469437907</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2297379466601851</v>
+        <v>0.2456780166617104</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5024222853915921</v>
+        <v>0.5083372641911568</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>44</v>
@@ -2765,19 +2765,19 @@
         <v>48670</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>37252</v>
+        <v>37285</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>60385</v>
+        <v>60395</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3551065788430362</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2717993106544714</v>
+        <v>0.2720423424673472</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4405861059703099</v>
+        <v>0.4406528173797249</v>
       </c>
     </row>
     <row r="33">
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5413</v>
+        <v>4882</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.008198373433933986</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04576715987017858</v>
+        <v>0.0412837270591942</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4772</v>
+        <v>4591</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01759643352062455</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08631070778793014</v>
+        <v>0.08303324327311543</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6393</v>
+        <v>6669</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01119240806782976</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03683661067853729</v>
+        <v>0.03842766648748236</v>
       </c>
     </row>
     <row r="35">
@@ -2940,19 +2940,19 @@
         <v>3992</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10036</v>
+        <v>10161</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03375172224051672</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.008880781220154441</v>
+        <v>0.008772989472718479</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08485787401373364</v>
+        <v>0.08591919775580788</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6537</v>
+        <v>5342</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01957971855337371</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.118225383026576</v>
+        <v>0.09661977683110853</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -2982,19 +2982,19 @@
         <v>5074</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1933</v>
+        <v>1953</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11463</v>
+        <v>11046</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02923680432345682</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01113663220459353</v>
+        <v>0.01125492723720232</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06604747483929541</v>
+        <v>0.06364481686111602</v>
       </c>
     </row>
     <row r="36">
@@ -3011,19 +3011,19 @@
         <v>17934</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10503</v>
+        <v>10642</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>28371</v>
+        <v>26935</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1516391257031037</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08880566395231104</v>
+        <v>0.08998739360951484</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2398953837961072</v>
+        <v>0.2277480926973585</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -3032,19 +3032,19 @@
         <v>6876</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2882</v>
+        <v>2922</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13928</v>
+        <v>13451</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1243611456677379</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05212754403088976</v>
+        <v>0.05284205135736546</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2518986276160796</v>
+        <v>0.2432709867396202</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>22</v>
@@ -3053,19 +3053,19 @@
         <v>24810</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16293</v>
+        <v>16133</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>36513</v>
+        <v>36978</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1429489049325146</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09387467453044231</v>
+        <v>0.09295180148553828</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2103809668966336</v>
+        <v>0.2130556772775014</v>
       </c>
     </row>
     <row r="37">
@@ -3082,19 +3082,19 @@
         <v>34732</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25526</v>
+        <v>24662</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>45769</v>
+        <v>45436</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2936795703897855</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2158375956484516</v>
+        <v>0.2085320522989891</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3869994763424895</v>
+        <v>0.3841874769459462</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -3103,19 +3103,19 @@
         <v>20521</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13571</v>
+        <v>13614</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>28294</v>
+        <v>28041</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3711446708591943</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2454430674580003</v>
+        <v>0.2462259267967784</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5117226328858039</v>
+        <v>0.5071376659501455</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>53</v>
@@ -3124,19 +3124,19 @@
         <v>55254</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>42710</v>
+        <v>43650</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>68866</v>
+        <v>70282</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3183584074672465</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2460848862517959</v>
+        <v>0.2515011076313715</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3967882270949638</v>
+        <v>0.4049494594189785</v>
       </c>
     </row>
     <row r="38">
@@ -3153,19 +3153,19 @@
         <v>60639</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>50095</v>
+        <v>49762</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>72818</v>
+        <v>72967</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5127312082326602</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4235797544923219</v>
+        <v>0.4207615630648086</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6157097689134937</v>
+        <v>0.6169767673932509</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>24</v>
@@ -3174,19 +3174,19 @@
         <v>25839</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>18325</v>
+        <v>18119</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>33566</v>
+        <v>33396</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4673180313990696</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3314270118036238</v>
+        <v>0.3277034753629854</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6070703135583477</v>
+        <v>0.6040021746569498</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>79</v>
@@ -3195,19 +3195,19 @@
         <v>86478</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>72432</v>
+        <v>70631</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>101124</v>
+        <v>99133</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4982634752089524</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4173342061134105</v>
+        <v>0.4069572481663372</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5826530624737624</v>
+        <v>0.5711820131041389</v>
       </c>
     </row>
     <row r="39">
@@ -3299,19 +3299,19 @@
         <v>4869</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1877</v>
+        <v>1905</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>11005</v>
+        <v>10278</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01790684322622133</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.006903926086252234</v>
+        <v>0.007004875767564337</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04047196093222276</v>
+        <v>0.03779971260334165</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>7</v>
@@ -3320,19 +3320,19 @@
         <v>6938</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2835</v>
+        <v>2937</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>13268</v>
+        <v>14174</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03808667033667837</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01556303804032112</v>
+        <v>0.01612385636914749</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07283435752770039</v>
+        <v>0.07781062427480896</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>12</v>
@@ -3341,19 +3341,19 @@
         <v>11807</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6852</v>
+        <v>6680</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>20893</v>
+        <v>19617</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02600261327722407</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0150906300798735</v>
+        <v>0.01471126951046452</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04601299266489282</v>
+        <v>0.04320251328215958</v>
       </c>
     </row>
     <row r="41">
@@ -3370,19 +3370,19 @@
         <v>4158</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>12107</v>
+        <v>13970</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01529218558795094</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.003477630400949638</v>
+        <v>0.003415196999417354</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04452520685124996</v>
+        <v>0.05137647472985019</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -3391,19 +3391,19 @@
         <v>6363</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2228</v>
+        <v>2312</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13015</v>
+        <v>13277</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03492787783769765</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01222956796296101</v>
+        <v>0.01269218668478629</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07144680341092061</v>
+        <v>0.07288691915883644</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>9</v>
@@ -3412,19 +3412,19 @@
         <v>10521</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5238</v>
+        <v>5261</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>20760</v>
+        <v>19962</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02316965888720587</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01153640212036655</v>
+        <v>0.01158644240570861</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0457196264644579</v>
+        <v>0.04396221034723993</v>
       </c>
     </row>
     <row r="42">
@@ -3441,19 +3441,19 @@
         <v>58056</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>45050</v>
+        <v>45928</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>74334</v>
+        <v>73327</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2135132325461308</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1656810629751644</v>
+        <v>0.1689116631276647</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.273381620548621</v>
+        <v>0.2696763314772264</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>35</v>
@@ -3462,19 +3462,19 @@
         <v>37860</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>27249</v>
+        <v>28415</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>49219</v>
+        <v>50193</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2078330980595735</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.14958366439111</v>
+        <v>0.1559873723106058</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2701884531943277</v>
+        <v>0.2755384345606921</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>92</v>
@@ -3483,19 +3483,19 @@
         <v>95916</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>78649</v>
+        <v>78569</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>115805</v>
+        <v>114359</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2112344685899168</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1732069925175095</v>
+        <v>0.1730324410444986</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.255036804508233</v>
+        <v>0.2518506851315641</v>
       </c>
     </row>
     <row r="43">
@@ -3512,19 +3512,19 @@
         <v>81737</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>67332</v>
+        <v>66353</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>98001</v>
+        <v>97595</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3006053343811949</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2476278327256032</v>
+        <v>0.2440269441084602</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3604203593870353</v>
+        <v>0.3589265392865059</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>48</v>
@@ -3533,19 +3533,19 @@
         <v>53196</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>40949</v>
+        <v>41358</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>67113</v>
+        <v>67229</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2920217908226674</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2247918639602884</v>
+        <v>0.2270335331138304</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3684161090932046</v>
+        <v>0.3690574322908602</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>125</v>
@@ -3554,19 +3554,19 @@
         <v>134933</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>114426</v>
+        <v>117468</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>155213</v>
+        <v>156656</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.297161776887256</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2519989138915301</v>
+        <v>0.2586995350841053</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3418240381028981</v>
+        <v>0.345001712214277</v>
       </c>
     </row>
     <row r="44">
@@ -3583,19 +3583,19 @@
         <v>123088</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>106851</v>
+        <v>104890</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>140161</v>
+        <v>140138</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4526824042585021</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3929675451189788</v>
+        <v>0.3857562612773512</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5154758645691464</v>
+        <v>0.5153906115539162</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>75</v>
@@ -3604,19 +3604,19 @@
         <v>77808</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>64777</v>
+        <v>64966</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>91930</v>
+        <v>91135</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4271305629433831</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3555975763536131</v>
+        <v>0.3566341658882968</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5046550544043161</v>
+        <v>0.5002906267448787</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>186</v>
@@ -3625,19 +3625,19 @@
         <v>200896</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>176861</v>
+        <v>181342</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>221593</v>
+        <v>224027</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4424314823583971</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.389498070403472</v>
+        <v>0.3993673958887782</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4880119554620037</v>
+        <v>0.4933715739480652</v>
       </c>
     </row>
     <row r="45">
@@ -3729,19 +3729,19 @@
         <v>5103</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2027</v>
+        <v>1977</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>11335</v>
+        <v>11141</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01416660199545959</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005626391454761573</v>
+        <v>0.005487019690157413</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03146666543564807</v>
+        <v>0.03092698270823947</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>6889</v>
+        <v>7152</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.00784085104629063</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02664054663591047</v>
+        <v>0.0276567276692432</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -3771,19 +3771,19 @@
         <v>7131</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2977</v>
+        <v>3029</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>14212</v>
+        <v>14269</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01152312467250972</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.004810014810789126</v>
+        <v>0.00489447631690285</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02296560380605979</v>
+        <v>0.02305698867757806</v>
       </c>
     </row>
     <row r="47">
@@ -3800,19 +3800,19 @@
         <v>12150</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>6620</v>
+        <v>5908</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>21103</v>
+        <v>20868</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03372903145680724</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01837605720462092</v>
+        <v>0.01639989270806184</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05858187900310294</v>
+        <v>0.05792860402502405</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>14</v>
@@ -3821,19 +3821,19 @@
         <v>14968</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>8293</v>
+        <v>8309</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>23442</v>
+        <v>23930</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.05788055753818415</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03206708205673341</v>
+        <v>0.03212814013842217</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.09064686089397571</v>
+        <v>0.09253396386585844</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>26</v>
@@ -3842,19 +3842,19 @@
         <v>27119</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>17544</v>
+        <v>18321</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>38715</v>
+        <v>39763</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04382174804077894</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02834920844816489</v>
+        <v>0.0296057230430588</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06255989481788141</v>
+        <v>0.0642536572981522</v>
       </c>
     </row>
     <row r="48">
@@ -3871,19 +3871,19 @@
         <v>70909</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>56997</v>
+        <v>55791</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>88695</v>
+        <v>86598</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1968416070254899</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1582241461957599</v>
+        <v>0.154876196935891</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2462150753092486</v>
+        <v>0.2403951107981095</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>47</v>
@@ -3892,19 +3892,19 @@
         <v>51722</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>38753</v>
+        <v>38448</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>66464</v>
+        <v>66874</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2000027942644305</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1498520270618825</v>
+        <v>0.1486731361480764</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2570076137456672</v>
+        <v>0.2585932198238323</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>113</v>
@@ -3913,19 +3913,19 @@
         <v>122631</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>102684</v>
+        <v>102628</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>145377</v>
+        <v>145172</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1981626401877006</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1659300647015859</v>
+        <v>0.1658391678684243</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.234917498330892</v>
+        <v>0.2345865957460668</v>
       </c>
     </row>
     <row r="49">
@@ -3942,19 +3942,19 @@
         <v>138196</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>119513</v>
+        <v>119743</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>157693</v>
+        <v>157560</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3836312680781739</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3317672034311958</v>
+        <v>0.3324051057942592</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4377544549975271</v>
+        <v>0.4373843344648309</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>88</v>
@@ -3963,19 +3963,19 @@
         <v>99766</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>83538</v>
+        <v>83763</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>117961</v>
+        <v>117317</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3857810700597001</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3230285123587895</v>
+        <v>0.3238984326064053</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4561400425090774</v>
+        <v>0.4536491182651243</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>218</v>
@@ -3984,19 +3984,19 @@
         <v>237963</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>214624</v>
+        <v>213135</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>264705</v>
+        <v>264465</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3845296519748311</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3468156111994001</v>
+        <v>0.3444098172659054</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4277430968329011</v>
+        <v>0.4273549198774003</v>
       </c>
     </row>
     <row r="50">
@@ -4013,19 +4013,19 @@
         <v>133874</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>114336</v>
+        <v>115720</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>153511</v>
+        <v>152483</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3716314914440693</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3173942751280368</v>
+        <v>0.3212363555061783</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4261461560524642</v>
+        <v>0.4232903323367389</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>83</v>
@@ -4034,19 +4034,19 @@
         <v>90124</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>73369</v>
+        <v>74221</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>105896</v>
+        <v>107454</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3484947270913946</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2837088744072427</v>
+        <v>0.2870023238714336</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4094855365071723</v>
+        <v>0.4155109402782868</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>205</v>
@@ -4055,19 +4055,19 @@
         <v>223997</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>197986</v>
+        <v>196595</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>247358</v>
+        <v>248919</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3619628351241796</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3199297807113083</v>
+        <v>0.3176825202571776</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3997118498988758</v>
+        <v>0.4022349664143289</v>
       </c>
     </row>
     <row r="51">
@@ -4159,19 +4159,19 @@
         <v>28069</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>19083</v>
+        <v>19086</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>40987</v>
+        <v>39895</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01978340317425294</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01345002772434939</v>
+        <v>0.01345240727152238</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02888815342863404</v>
+        <v>0.02811891496009403</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>26</v>
@@ -4180,19 +4180,19 @@
         <v>29904</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>19547</v>
+        <v>19937</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>44194</v>
+        <v>42182</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.03161593385223081</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.02066613714088403</v>
+        <v>0.02107820487277248</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.04672500332451643</v>
+        <v>0.04459724877805531</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>53</v>
@@ -4201,19 +4201,19 @@
         <v>57973</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>43756</v>
+        <v>43346</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>75168</v>
+        <v>75962</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02451631945064568</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01850407711260508</v>
+        <v>0.01833087642458521</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.03178834354632456</v>
+        <v>0.03212390090405641</v>
       </c>
     </row>
     <row r="53">
@@ -4230,19 +4230,19 @@
         <v>34684</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>22904</v>
+        <v>24259</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>47982</v>
+        <v>48653</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.02444580557024714</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.01614342441638248</v>
+        <v>0.01709819986133003</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.03381814932299935</v>
+        <v>0.03429131104035522</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>32</v>
@@ -4251,19 +4251,19 @@
         <v>33761</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>23520</v>
+        <v>24208</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>47341</v>
+        <v>46360</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.0356942718825479</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02486637482159908</v>
+        <v>0.02559360183424097</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.05005215585857668</v>
+        <v>0.04901495830452568</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>64</v>
@@ -4272,19 +4272,19 @@
         <v>68445</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>54169</v>
+        <v>54068</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>86132</v>
+        <v>87236</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.0289451008387587</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.02290784297321949</v>
+        <v>0.02286517618510017</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.03642476827644889</v>
+        <v>0.03689147483364522</v>
       </c>
     </row>
     <row r="54">
@@ -4301,19 +4301,19 @@
         <v>268586</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>238698</v>
+        <v>238672</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>300258</v>
+        <v>301142</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1893035446694815</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1682382389303095</v>
+        <v>0.1682198292489861</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2116262662801427</v>
+        <v>0.212249468308206</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>160</v>
@@ -4322,19 +4322,19 @@
         <v>172629</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>149326</v>
+        <v>149090</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>200368</v>
+        <v>197555</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1825136980403396</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1578765835126442</v>
+        <v>0.1576266873776836</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.211840764440049</v>
+        <v>0.2088671934996645</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>418</v>
@@ -4343,19 +4343,19 @@
         <v>441215</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>404210</v>
+        <v>405377</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>484937</v>
+        <v>479971</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1865876611024027</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.170938332375054</v>
+        <v>0.1714318376187149</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2050773777508055</v>
+        <v>0.2029775209182785</v>
       </c>
     </row>
     <row r="55">
@@ -4372,19 +4372,19 @@
         <v>426991</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>388568</v>
+        <v>388191</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>458761</v>
+        <v>462038</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3009499576949664</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2738684264243056</v>
+        <v>0.2736028644621226</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3233417627184575</v>
+        <v>0.3256517210597368</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>253</v>
@@ -4393,19 +4393,19 @@
         <v>278199</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>250077</v>
+        <v>250220</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>308345</v>
+        <v>306055</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2941288707614935</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2643961106932654</v>
+        <v>0.2645477311676855</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.326000054140668</v>
+        <v>0.3235789205149696</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>658</v>
@@ -4414,19 +4414,19 @@
         <v>705191</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>653890</v>
+        <v>652877</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>750279</v>
+        <v>748716</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2982215782596011</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2765266423050003</v>
+        <v>0.2760983357441438</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.3172891794612335</v>
+        <v>0.3166283676376778</v>
       </c>
     </row>
     <row r="56">
@@ -4443,19 +4443,19 @@
         <v>660481</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>619216</v>
+        <v>621509</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>699930</v>
+        <v>700280</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.465517288891052</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4364328067959009</v>
+        <v>0.43804941352817</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4933211900517539</v>
+        <v>0.4935679122876244</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>402</v>
@@ -4464,19 +4464,19 @@
         <v>431349</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>398233</v>
+        <v>403898</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>462684</v>
+        <v>462810</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4560472254633882</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.421035373266841</v>
+        <v>0.4270243315191739</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4891767455470133</v>
+        <v>0.4893095260679478</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1011</v>
@@ -4485,19 +4485,19 @@
         <v>1091830</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1043665</v>
+        <v>1043808</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1140171</v>
+        <v>1148520</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4617293403485919</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.4413607747430279</v>
+        <v>0.4414212270679276</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4821727236864516</v>
+        <v>0.4857033223698091</v>
       </c>
     </row>
     <row r="57">
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6369</v>
+        <v>7177</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01526721114381467</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04787135318412885</v>
+        <v>0.05394299095982922</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4854,19 +4854,19 @@
         <v>3991</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9263</v>
+        <v>9851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03988218488191133</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01037813434695066</v>
+        <v>0.01013281470731643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09256294418547893</v>
+        <v>0.09844213187308415</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4875,19 +4875,19 @@
         <v>6022</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2075</v>
+        <v>2809</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12455</v>
+        <v>13176</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02583347697725205</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008900045774031881</v>
+        <v>0.0120508550775876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05342580734198012</v>
+        <v>0.05651884878237012</v>
       </c>
     </row>
     <row r="5">
@@ -4904,19 +4904,19 @@
         <v>9282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4287</v>
+        <v>4194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17514</v>
+        <v>17218</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06976467937394561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03222417576616535</v>
+        <v>0.03151979734124574</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.131635697359561</v>
+        <v>0.1294066959127156</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -4925,19 +4925,19 @@
         <v>3346</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9631</v>
+        <v>10638</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03343300207998594</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008788934465411433</v>
+        <v>0.008827216108562479</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09624339932191923</v>
+        <v>0.1063039987488315</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -4946,19 +4946,19 @@
         <v>12628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6236</v>
+        <v>6408</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21962</v>
+        <v>21695</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05416888128180745</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02675092517498032</v>
+        <v>0.02748737298540488</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09420947978806718</v>
+        <v>0.09306325367358598</v>
       </c>
     </row>
     <row r="6">
@@ -4975,19 +4975,19 @@
         <v>17498</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10337</v>
+        <v>9600</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27170</v>
+        <v>26243</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1315162276259921</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07769414726779837</v>
+        <v>0.07215421272149999</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2042064671533359</v>
+        <v>0.1972423386652177</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -4996,19 +4996,19 @@
         <v>15165</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8987</v>
+        <v>9175</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23758</v>
+        <v>24195</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1515481851803155</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08980660062301328</v>
+        <v>0.09168116837250644</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2374118982228084</v>
+        <v>0.2417784897293803</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -5017,19 +5017,19 @@
         <v>32664</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23080</v>
+        <v>23176</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45069</v>
+        <v>46077</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1401151800740105</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09900690101858481</v>
+        <v>0.09941807461287755</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1933301359327887</v>
+        <v>0.1976527359158282</v>
       </c>
     </row>
     <row r="7">
@@ -5046,19 +5046,19 @@
         <v>39872</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29635</v>
+        <v>29432</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51523</v>
+        <v>51691</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2996709161828359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2227315828469033</v>
+        <v>0.2212063568437669</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3872404574376126</v>
+        <v>0.388507910748761</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -5067,19 +5067,19 @@
         <v>24101</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15762</v>
+        <v>16306</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33166</v>
+        <v>33310</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2408420973487495</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1575130178061886</v>
+        <v>0.1629493148457086</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3314307845023807</v>
+        <v>0.3328705416669351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -5088,19 +5088,19 @@
         <v>63972</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48937</v>
+        <v>50613</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76593</v>
+        <v>79279</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2744179565379498</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2099209531396163</v>
+        <v>0.2171128212625779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3285548664949107</v>
+        <v>0.3400782558553345</v>
       </c>
     </row>
     <row r="8">
@@ -5117,19 +5117,19 @@
         <v>64368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52448</v>
+        <v>52111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75575</v>
+        <v>76867</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4837809656734118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3941933806307247</v>
+        <v>0.3916651003899896</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.56801404109497</v>
+        <v>0.5777282093281051</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -5138,19 +5138,19 @@
         <v>53467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>43024</v>
+        <v>43602</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62748</v>
+        <v>63928</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5342945305090377</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4299419538511093</v>
+        <v>0.4357101910710886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6270376219545609</v>
+        <v>0.6388299449627495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -5159,19 +5159,19 @@
         <v>117834</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>101788</v>
+        <v>101801</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>134215</v>
+        <v>134133</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5054645051289802</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4366339382633191</v>
+        <v>0.43668788363873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5757313939020607</v>
+        <v>0.5753828387172386</v>
       </c>
     </row>
     <row r="9">
@@ -5263,19 +5263,19 @@
         <v>3154</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8497</v>
+        <v>8338</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01852313695771426</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005898953095604386</v>
+        <v>0.005942108197358189</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04989774009755117</v>
+        <v>0.04895954276993137</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5747</v>
+        <v>6464</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01660320206187769</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05055360291320751</v>
+        <v>0.05686220597188594</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -5305,19 +5305,19 @@
         <v>5042</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1962</v>
+        <v>1064</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11766</v>
+        <v>10181</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0177545585668719</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006910279869020202</v>
+        <v>0.00374820032165934</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04143162843841004</v>
+        <v>0.03585025709611089</v>
       </c>
     </row>
     <row r="11">
@@ -5347,19 +5347,19 @@
         <v>5745</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2005</v>
+        <v>1930</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12954</v>
+        <v>12705</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05053652632932851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01763325003038632</v>
+        <v>0.01697795553304351</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1139486710562396</v>
+        <v>0.1117583777361194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -5368,19 +5368,19 @@
         <v>5745</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1634</v>
+        <v>1876</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12141</v>
+        <v>12553</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02023052040420035</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005755274686299624</v>
+        <v>0.006607234424421409</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04275407112234589</v>
+        <v>0.04420340085746545</v>
       </c>
     </row>
     <row r="12">
@@ -5397,19 +5397,19 @@
         <v>29656</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20791</v>
+        <v>20821</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41400</v>
+        <v>40637</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.174144346678252</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1220866559693357</v>
+        <v>0.1222608080005201</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2431028057613729</v>
+        <v>0.2386224594972993</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -5418,19 +5418,19 @@
         <v>10976</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6135</v>
+        <v>5316</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19362</v>
+        <v>18925</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09655474503565954</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05396469388338922</v>
+        <v>0.04675952977081054</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.170316288292425</v>
+        <v>0.1664749578603435</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -5439,19 +5439,19 @@
         <v>40633</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>29895</v>
+        <v>30046</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53757</v>
+        <v>53571</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1430840793192489</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1052717484433506</v>
+        <v>0.1058030482352197</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1892997204411663</v>
+        <v>0.1886471939924351</v>
       </c>
     </row>
     <row r="13">
@@ -5468,19 +5468,19 @@
         <v>48297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35928</v>
+        <v>37565</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61417</v>
+        <v>61148</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2836028370622374</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2109747382271261</v>
+        <v>0.2205854697330434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3606467960860949</v>
+        <v>0.3590652314534515</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -5489,19 +5489,19 @@
         <v>20246</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13075</v>
+        <v>12903</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29722</v>
+        <v>29768</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1780936027576683</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1150139497577476</v>
+        <v>0.1135051949977511</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2614573205106996</v>
+        <v>0.2618540391709321</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -5510,19 +5510,19 @@
         <v>68542</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55177</v>
+        <v>53531</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84738</v>
+        <v>84344</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2413659269999921</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1943012338337949</v>
+        <v>0.1885041707475403</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2983958686191049</v>
+        <v>0.2970094622117821</v>
       </c>
     </row>
     <row r="14">
@@ -5539,19 +5539,19 @@
         <v>89190</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75802</v>
+        <v>75399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103217</v>
+        <v>103032</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5237296793017963</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4451192528443768</v>
+        <v>0.4427522977387631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6060972675709158</v>
+        <v>0.6050145487389488</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -5560,19 +5560,19 @@
         <v>74826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64486</v>
+        <v>63180</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84104</v>
+        <v>84842</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6582119238154659</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.567261941433986</v>
+        <v>0.5557678566209181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7398345254958254</v>
+        <v>0.7463209665810813</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>153</v>
@@ -5581,19 +5581,19 @@
         <v>164015</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>146873</v>
+        <v>146063</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181140</v>
+        <v>181038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5775649147096867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5171988652594177</v>
+        <v>0.5143470044330393</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6378669276863546</v>
+        <v>0.6375091644145717</v>
       </c>
     </row>
     <row r="15">
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8569</v>
+        <v>9145</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02000126141959776</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0682332732791993</v>
+        <v>0.07281816241569644</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5706,19 +5706,19 @@
         <v>2896</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7931</v>
+        <v>7467</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03434066826309885</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01044459530521162</v>
+        <v>0.01050984514214316</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09404153714565615</v>
+        <v>0.08854648520621662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -5727,19 +5727,19 @@
         <v>5408</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1915</v>
+        <v>1887</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12387</v>
+        <v>11535</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02576191805403344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009121832337279916</v>
+        <v>0.00899073682111267</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05900794952843121</v>
+        <v>0.05494982814678948</v>
       </c>
     </row>
     <row r="17">
@@ -5756,19 +5756,19 @@
         <v>3806</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8732</v>
+        <v>8810</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03030151524722009</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007728517076324986</v>
+        <v>0.007723360770184409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06952532489723991</v>
+        <v>0.07015026819798176</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4661</v>
+        <v>4620</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0109031562479405</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05526386329451639</v>
+        <v>0.05477772505873169</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -5798,19 +5798,19 @@
         <v>4725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1732</v>
+        <v>1844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9406</v>
+        <v>9455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02250849516724298</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00825221661184404</v>
+        <v>0.00878513955595737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04480627834331465</v>
+        <v>0.04503894627154601</v>
       </c>
     </row>
     <row r="18">
@@ -5827,19 +5827,19 @@
         <v>26480</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18822</v>
+        <v>18395</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36590</v>
+        <v>36004</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2108469506007896</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1498719327465892</v>
+        <v>0.1464725065483808</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2913477455073522</v>
+        <v>0.2866850369474502</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -5848,19 +5848,19 @@
         <v>17040</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10648</v>
+        <v>10192</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25229</v>
+        <v>25770</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2020587735475238</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1262598633862569</v>
+        <v>0.1208499112923391</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2991616520665737</v>
+        <v>0.3055731390460716</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>44</v>
@@ -5869,19 +5869,19 @@
         <v>43520</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34071</v>
+        <v>33515</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>56778</v>
+        <v>56706</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.207316423083228</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1623028864255168</v>
+        <v>0.159655461181693</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2704740934518768</v>
+        <v>0.2701290525376046</v>
       </c>
     </row>
     <row r="19">
@@ -5898,19 +5898,19 @@
         <v>53755</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44521</v>
+        <v>43037</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64909</v>
+        <v>64071</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4280208592251277</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3545007582159951</v>
+        <v>0.342677784066195</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5168374209199059</v>
+        <v>0.510165435592408</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -5919,19 +5919,19 @@
         <v>35198</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25885</v>
+        <v>26756</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43400</v>
+        <v>45086</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4173716690403985</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3069399466009527</v>
+        <v>0.3172664303285395</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5146242968729708</v>
+        <v>0.5346189087132195</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -5940,19 +5940,19 @@
         <v>88953</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75668</v>
+        <v>75152</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102187</v>
+        <v>103076</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4237426956470554</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3604599955026518</v>
+        <v>0.3579978753908084</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4867843522298405</v>
+        <v>0.4910183556873573</v>
       </c>
     </row>
     <row r="20">
@@ -5969,19 +5969,19 @@
         <v>39037</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29331</v>
+        <v>29443</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49209</v>
+        <v>48979</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3108294135072649</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2335497429077506</v>
+        <v>0.2344365111052968</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3918276261556193</v>
+        <v>0.3899953157396568</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -5990,19 +5990,19 @@
         <v>28279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20295</v>
+        <v>20263</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36871</v>
+        <v>37701</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3353257329010384</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2406484841864157</v>
+        <v>0.2402740228867554</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4372093090098488</v>
+        <v>0.4470520709292625</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -6011,19 +6011,19 @@
         <v>67316</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>55356</v>
+        <v>54330</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>81121</v>
+        <v>80288</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3206704680484402</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.26369707979826</v>
+        <v>0.2588103639846965</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3864328296863525</v>
+        <v>0.3824669111289916</v>
       </c>
     </row>
     <row r="21">
@@ -6115,19 +6115,19 @@
         <v>5525</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1987</v>
+        <v>2186</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11402</v>
+        <v>12433</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04925433441019044</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01771403802836943</v>
+        <v>0.01948617317526894</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1016425093696425</v>
+        <v>0.1108315611884916</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -6136,19 +6136,19 @@
         <v>6658</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2907</v>
+        <v>2869</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13289</v>
+        <v>12673</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08133502203721917</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03550630623964713</v>
+        <v>0.03505087791787093</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1623396728732473</v>
+        <v>0.1548187625445435</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -6157,19 +6157,19 @@
         <v>12183</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6663</v>
+        <v>6152</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20024</v>
+        <v>19401</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06278814584600212</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03433674977575652</v>
+        <v>0.03170585327077314</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1031933752252325</v>
+        <v>0.09998746625593943</v>
       </c>
     </row>
     <row r="23">
@@ -6186,19 +6186,19 @@
         <v>6064</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2175</v>
+        <v>2142</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13254</v>
+        <v>13294</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0540535146188786</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01938457785135137</v>
+        <v>0.0190961881554133</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1181491084724534</v>
+        <v>0.1185086317424181</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -6207,19 +6207,19 @@
         <v>2921</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>902</v>
+        <v>932</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8453</v>
+        <v>7968</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03567853067951025</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01101750406874456</v>
+        <v>0.01138964375226494</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1032573781714819</v>
+        <v>0.09734224752239887</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -6228,19 +6228,19 @@
         <v>8984</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3864</v>
+        <v>4207</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16974</v>
+        <v>16599</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04630169923815224</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01991556128424418</v>
+        <v>0.02168156985514369</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08747975643900585</v>
+        <v>0.08554524746726341</v>
       </c>
     </row>
     <row r="24">
@@ -6257,19 +6257,19 @@
         <v>16801</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9706</v>
+        <v>10356</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25669</v>
+        <v>27429</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1497686083756642</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08651925319971535</v>
+        <v>0.09231921503196992</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2288235402747484</v>
+        <v>0.2445125666187913</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -6278,19 +6278,19 @@
         <v>3576</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>931</v>
+        <v>950</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9557</v>
+        <v>9755</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0436809270520799</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01136934354168723</v>
+        <v>0.01160629352715444</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1167473256461169</v>
+        <v>0.1191673060209291</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -6299,19 +6299,19 @@
         <v>20377</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12883</v>
+        <v>12747</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30701</v>
+        <v>31325</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1050136239629798</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06639348219383691</v>
+        <v>0.06569447191438872</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1582183171864696</v>
+        <v>0.161438171942145</v>
       </c>
     </row>
     <row r="25">
@@ -6328,19 +6328,19 @@
         <v>19307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12160</v>
+        <v>11938</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28634</v>
+        <v>28422</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1721057907810593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1083971990027064</v>
+        <v>0.1064174202865908</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2552500721717869</v>
+        <v>0.2533586280974606</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -6349,19 +6349,19 @@
         <v>15032</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8515</v>
+        <v>8734</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22935</v>
+        <v>22986</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1836366719063656</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1040239656743463</v>
+        <v>0.1066970420858252</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2801794367736994</v>
+        <v>0.2808037491848431</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -6370,19 +6370,19 @@
         <v>34339</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24422</v>
+        <v>25531</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46522</v>
+        <v>46249</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1769702990688172</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1258605247750804</v>
+        <v>0.131578366911707</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2397538098233172</v>
+        <v>0.2383495238397567</v>
       </c>
     </row>
     <row r="26">
@@ -6399,19 +6399,19 @@
         <v>64483</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54212</v>
+        <v>52652</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75471</v>
+        <v>74989</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5748177518142075</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4832597044202731</v>
+        <v>0.4693527286832714</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6727660699377166</v>
+        <v>0.668469655127399</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -6420,19 +6420,19 @@
         <v>53672</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44410</v>
+        <v>44387</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>62135</v>
+        <v>62098</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6556688483248251</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5425135897514691</v>
+        <v>0.5422424201350902</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7590454900656843</v>
+        <v>0.7585973445077596</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>112</v>
@@ -6441,19 +6441,19 @@
         <v>118155</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>104451</v>
+        <v>104431</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>131510</v>
+        <v>131073</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6089262318840487</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5382973284914755</v>
+        <v>0.538196399521479</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6777490101827932</v>
+        <v>0.6755006327023377</v>
       </c>
     </row>
     <row r="27">
@@ -6545,19 +6545,19 @@
         <v>2871</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7779</v>
+        <v>7977</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03547296936517635</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01156746662687913</v>
+        <v>0.01153361787753008</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09612278097196908</v>
+        <v>0.0985627636118907</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8217</v>
+        <v>7729</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04220677433097279</v>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1482654460200459</v>
+        <v>0.1394611563541586</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -6587,19 +6587,19 @@
         <v>5210</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1821</v>
+        <v>1895</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11499</v>
+        <v>11876</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03820990601887442</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01335695360668561</v>
+        <v>0.01390005841823544</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08433618481663162</v>
+        <v>0.08710346802817298</v>
       </c>
     </row>
     <row r="29">
@@ -6616,19 +6616,19 @@
         <v>3872</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8977</v>
+        <v>8807</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04784614656572376</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01191770353456128</v>
+        <v>0.0118761511882604</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1109275613226622</v>
+        <v>0.108819011468045</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -6637,19 +6637,19 @@
         <v>3588</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>950</v>
+        <v>975</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8348</v>
+        <v>8860</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06473949267129803</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01714174095014066</v>
+        <v>0.01759008993154764</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1506308218278924</v>
+        <v>0.1598823914141544</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -6658,19 +6658,19 @@
         <v>7460</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3567</v>
+        <v>3220</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14009</v>
+        <v>13469</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05471240099316916</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02615841929355887</v>
+        <v>0.02361445151650424</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1027417585288964</v>
+        <v>0.09878540780425576</v>
       </c>
     </row>
     <row r="30">
@@ -6687,19 +6687,19 @@
         <v>21493</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14831</v>
+        <v>14312</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30797</v>
+        <v>29949</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2655725233803329</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.183251474186638</v>
+        <v>0.1768402151970483</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3805371992513984</v>
+        <v>0.3700609034666391</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -6708,19 +6708,19 @@
         <v>11716</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7008</v>
+        <v>6822</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17932</v>
+        <v>18244</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2114146856566708</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1264508202754036</v>
+        <v>0.1230917997175228</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.323577936203236</v>
+        <v>0.3291984038293241</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>34</v>
@@ -6729,19 +6729,19 @@
         <v>33209</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24122</v>
+        <v>24273</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>43199</v>
+        <v>45190</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2435602180189775</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.176913472670394</v>
+        <v>0.1780219235133303</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3168298055139701</v>
+        <v>0.3314290075658669</v>
       </c>
     </row>
     <row r="31">
@@ -6758,19 +6758,19 @@
         <v>34125</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25954</v>
+        <v>25736</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43114</v>
+        <v>43288</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4216619152512474</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3207017041302985</v>
+        <v>0.3180084382162496</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5327342484300859</v>
+        <v>0.5348778111025729</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -6779,19 +6779,19 @@
         <v>26695</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20479</v>
+        <v>20973</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>34152</v>
+        <v>34423</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4817087150363086</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.369543552591911</v>
+        <v>0.3784506873008813</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6162631258213547</v>
+        <v>0.6211508005545935</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>61</v>
@@ -6800,19 +6800,19 @@
         <v>60820</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>50184</v>
+        <v>49875</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>72642</v>
+        <v>73022</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.446067773173146</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3680560985073074</v>
+        <v>0.365794163541028</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5327698520123607</v>
+        <v>0.5355549601931965</v>
       </c>
     </row>
     <row r="32">
@@ -6829,19 +6829,19 @@
         <v>18569</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12074</v>
+        <v>11691</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27769</v>
+        <v>27615</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2294464454375196</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.149193987984744</v>
+        <v>0.1444562735989854</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3431224051098984</v>
+        <v>0.3412250580048083</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -6850,19 +6850,19 @@
         <v>11080</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6425</v>
+        <v>6323</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17487</v>
+        <v>17882</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1999303323047497</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1159417680620021</v>
+        <v>0.1141024968126592</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3155510671355382</v>
+        <v>0.3226801343219957</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>30</v>
@@ -6871,19 +6871,19 @@
         <v>29649</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20613</v>
+        <v>21365</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>39457</v>
+        <v>39784</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2174497017958329</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1511798029670796</v>
+        <v>0.1566967810207537</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2893812559501947</v>
+        <v>0.2917802195160631</v>
       </c>
     </row>
     <row r="33">
@@ -6975,19 +6975,19 @@
         <v>8246</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3663</v>
+        <v>3171</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16712</v>
+        <v>15591</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.07670564738731865</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03407659164149546</v>
+        <v>0.02949971900625833</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1554606353977614</v>
+        <v>0.1450308167769315</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -6996,19 +6996,19 @@
         <v>4767</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1795</v>
+        <v>1779</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10270</v>
+        <v>10303</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06307682995755945</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02375628560919486</v>
+        <v>0.02353773559695653</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1359009350658114</v>
+        <v>0.1363373851354913</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -7017,19 +7017,19 @@
         <v>13013</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7256</v>
+        <v>7363</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>21723</v>
+        <v>22072</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07107990983459911</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0396340127847099</v>
+        <v>0.04022202263936725</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1186596105616815</v>
+        <v>0.1205677360934213</v>
       </c>
     </row>
     <row r="35">
@@ -7046,19 +7046,19 @@
         <v>16610</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10443</v>
+        <v>9833</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>24447</v>
+        <v>24587</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1545087467503792</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09714175313102828</v>
+        <v>0.09146983921171767</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2274096501709216</v>
+        <v>0.2287113607213072</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -7067,19 +7067,19 @@
         <v>16591</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10131</v>
+        <v>10449</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>24596</v>
+        <v>24652</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2195519159097205</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1340606800356652</v>
+        <v>0.1382701741916209</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3254772660870089</v>
+        <v>0.326224316557932</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>34</v>
@@ -7088,19 +7088,19 @@
         <v>33201</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>23960</v>
+        <v>23258</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>44947</v>
+        <v>43566</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1813574297834794</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1308773740465664</v>
+        <v>0.1270424506478696</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2455152367779446</v>
+        <v>0.2379711328762133</v>
       </c>
     </row>
     <row r="36">
@@ -7117,19 +7117,19 @@
         <v>30616</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21940</v>
+        <v>21978</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41307</v>
+        <v>41278</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.284796328360703</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.204085727857444</v>
+        <v>0.20443923514742</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3842434896952709</v>
+        <v>0.3839745456858366</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>26</v>
@@ -7138,19 +7138,19 @@
         <v>25396</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>18328</v>
+        <v>17815</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>34629</v>
+        <v>33332</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3360657912087097</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2425334666112111</v>
+        <v>0.2357454519361394</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.458244422109822</v>
+        <v>0.4410805930528754</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>55</v>
@@ -7159,19 +7159,19 @@
         <v>56012</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>44917</v>
+        <v>43943</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>68848</v>
+        <v>68307</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3059594662439644</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2453507709406449</v>
+        <v>0.240032714319013</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3760733514318657</v>
+        <v>0.3731185401993541</v>
       </c>
     </row>
     <row r="37">
@@ -7188,19 +7188,19 @@
         <v>20820</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13377</v>
+        <v>13352</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>30640</v>
+        <v>30022</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1936734991816375</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1244310121996951</v>
+        <v>0.1242012737774819</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2850193803293277</v>
+        <v>0.2792668145231515</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>14</v>
@@ -7209,19 +7209,19 @@
         <v>13608</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8289</v>
+        <v>7847</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>21303</v>
+        <v>20720</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1800764831556509</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1096874577085928</v>
+        <v>0.1038384063572449</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2819012704718162</v>
+        <v>0.2741875648115631</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>35</v>
@@ -7230,19 +7230,19 @@
         <v>34428</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25030</v>
+        <v>24935</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>47103</v>
+        <v>45474</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1880608886923887</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1367210034871632</v>
+        <v>0.1362027677118962</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2572936310469723</v>
+        <v>0.248398129211021</v>
       </c>
     </row>
     <row r="38">
@@ -7259,19 +7259,19 @@
         <v>31210</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>21260</v>
+        <v>23098</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>41085</v>
+        <v>41817</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2903157783199617</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1977624369861593</v>
+        <v>0.2148613555012844</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3821757656271866</v>
+        <v>0.3889893661969779</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>15</v>
@@ -7280,19 +7280,19 @@
         <v>15206</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>9169</v>
+        <v>8843</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>24090</v>
+        <v>23119</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2012289797683595</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1213378594588201</v>
+        <v>0.1170140611542284</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3187816603486573</v>
+        <v>0.3059349347152661</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>44</v>
@@ -7301,19 +7301,19 @@
         <v>46416</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>35755</v>
+        <v>35934</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>59103</v>
+        <v>58755</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2535423054455683</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1953055239900669</v>
+        <v>0.1962855151847007</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3228442632501492</v>
+        <v>0.3209387829332389</v>
       </c>
     </row>
     <row r="39">
@@ -7405,19 +7405,19 @@
         <v>10839</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5432</v>
+        <v>5482</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>18532</v>
+        <v>19493</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03020191379719178</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01513484611638453</v>
+        <v>0.01527583986313223</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05163790238799182</v>
+        <v>0.05431592487545348</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -7426,19 +7426,19 @@
         <v>9139</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4761</v>
+        <v>4147</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16662</v>
+        <v>16433</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03219820278127478</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01677410174169645</v>
+        <v>0.01460939066426304</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05869921961737424</v>
+        <v>0.05789547045905408</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>19</v>
@@ -7447,19 +7447,19 @@
         <v>19978</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>12421</v>
+        <v>11657</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>30483</v>
+        <v>31686</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03108353845020077</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01932561436803898</v>
+        <v>0.01813729456822072</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04742877623577837</v>
+        <v>0.04929933066198235</v>
       </c>
     </row>
     <row r="41">
@@ -7476,19 +7476,19 @@
         <v>20401</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12641</v>
+        <v>12662</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>30160</v>
+        <v>32101</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05684785005104653</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0352242382066275</v>
+        <v>0.03528147740637368</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08404160788365515</v>
+        <v>0.08944937726476949</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>17</v>
@@ -7497,19 +7497,19 @@
         <v>16959</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>9759</v>
+        <v>10557</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>26029</v>
+        <v>27108</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05974622269176306</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03438093948191779</v>
+        <v>0.03719327544452637</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09170261917344209</v>
+        <v>0.09550367140290468</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>35</v>
@@ -7518,19 +7518,19 @@
         <v>37360</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>25783</v>
+        <v>27690</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>50553</v>
+        <v>52649</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05812786351304348</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.04011469992144383</v>
+        <v>0.04308284558318461</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07865480129355071</v>
+        <v>0.08191557076874417</v>
       </c>
     </row>
     <row r="42">
@@ -7547,19 +7547,19 @@
         <v>69627</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>55108</v>
+        <v>55671</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>87635</v>
+        <v>86145</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.194014304361723</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1535583576980134</v>
+        <v>0.1551268354362413</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2441929796564313</v>
+        <v>0.240042462479982</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>46</v>
@@ -7568,19 +7568,19 @@
         <v>49385</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>37822</v>
+        <v>37808</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>63930</v>
+        <v>63884</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1739861534320749</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1332478641721029</v>
+        <v>0.133198313131144</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.225228604920177</v>
+        <v>0.2250662433348846</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>108</v>
@@ -7589,19 +7589,19 @@
         <v>119012</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>100252</v>
+        <v>97749</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>141428</v>
+        <v>138661</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1851692364609583</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1559804053605573</v>
+        <v>0.1520862269512798</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2200453206755262</v>
+        <v>0.2157402431216549</v>
       </c>
     </row>
     <row r="43">
@@ -7618,19 +7618,19 @@
         <v>102753</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>84231</v>
+        <v>84351</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>120839</v>
+        <v>120241</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2863190459472093</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2347077529909624</v>
+        <v>0.2350441017013636</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3367153517167292</v>
+        <v>0.3350495678635181</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>75</v>
@@ -7639,19 +7639,19 @@
         <v>75978</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>61282</v>
+        <v>61139</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>90761</v>
+        <v>91110</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2676725352772285</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2158987375687812</v>
+        <v>0.215395175962595</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3197532832901311</v>
+        <v>0.3209839099588618</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>162</v>
@@ -7660,19 +7660,19 @@
         <v>178731</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>156622</v>
+        <v>156194</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>203573</v>
+        <v>201884</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2780841542905779</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2436851271406643</v>
+        <v>0.2430195918874204</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3167355352409907</v>
+        <v>0.3141083858750356</v>
       </c>
     </row>
     <row r="44">
@@ -7689,19 +7689,19 @@
         <v>155255</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>137388</v>
+        <v>136266</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>174235</v>
+        <v>175419</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4326168858428294</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3828284740332202</v>
+        <v>0.3797031162808802</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4855019388924541</v>
+        <v>0.4888018447707388</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>126</v>
@@ -7710,19 +7710,19 @@
         <v>132385</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>116215</v>
+        <v>116441</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>150905</v>
+        <v>148879</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4663968858176588</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4094305213998214</v>
+        <v>0.4102245535946624</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5316440911521183</v>
+        <v>0.5245053139406131</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>261</v>
@@ -7731,19 +7731,19 @@
         <v>287640</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>261271</v>
+        <v>259445</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>313402</v>
+        <v>312670</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4475352072852194</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4065077470007268</v>
+        <v>0.4036658789211095</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.487616757956074</v>
+        <v>0.4864787765052727</v>
       </c>
     </row>
     <row r="45">
@@ -7835,19 +7835,19 @@
         <v>5721</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2740</v>
+        <v>2017</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>12591</v>
+        <v>11547</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01744628501069488</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.008355889655756153</v>
+        <v>0.006151939897990216</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03839744582886175</v>
+        <v>0.03521227522110583</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>5</v>
@@ -7856,19 +7856,19 @@
         <v>5078</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2015</v>
+        <v>1919</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>11115</v>
+        <v>10287</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02140820912236181</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.008494335686706208</v>
+        <v>0.008091283265747047</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.04685724060216983</v>
+        <v>0.04336771533123154</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>11</v>
@@ -7877,19 +7877,19 @@
         <v>10799</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>5865</v>
+        <v>5747</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>19541</v>
+        <v>18673</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01910928723178437</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01037847505223294</v>
+        <v>0.01016914741216007</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03457815866397435</v>
+        <v>0.03304280011774511</v>
       </c>
     </row>
     <row r="47">
@@ -7906,19 +7906,19 @@
         <v>14367</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7704</v>
+        <v>8141</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>24808</v>
+        <v>25353</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04381198071589893</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02349462089842445</v>
+        <v>0.02482800155547113</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.07565531676193764</v>
+        <v>0.07731562870828179</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>9</v>
@@ -7927,19 +7927,19 @@
         <v>9434</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>4668</v>
+        <v>4180</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>17376</v>
+        <v>16319</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03977126514138036</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.019680045919544</v>
+        <v>0.01762218348202946</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.07325065582031783</v>
+        <v>0.0687962407583059</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>22</v>
@@ -7948,19 +7948,19 @@
         <v>23800</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>15824</v>
+        <v>15040</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>34800</v>
+        <v>34422</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04211590608503276</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0280012838669318</v>
+        <v>0.02661367719553681</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06158042620633206</v>
+        <v>0.06091088604217595</v>
       </c>
     </row>
     <row r="48">
@@ -7977,19 +7977,19 @@
         <v>56685</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>43043</v>
+        <v>43009</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>68797</v>
+        <v>71433</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1728674542390827</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1312624529774599</v>
+        <v>0.1311608873193361</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2098030267995227</v>
+        <v>0.2178406203115716</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>39</v>
@@ -7998,19 +7998,19 @@
         <v>40239</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>30178</v>
+        <v>30174</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>52293</v>
+        <v>54162</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1696355736764041</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1272222013254595</v>
+        <v>0.1272040680798653</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2204547359722807</v>
+        <v>0.2283337134018887</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>94</v>
@@ -8019,19 +8019,19 @@
         <v>96924</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>80761</v>
+        <v>81196</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>117046</v>
+        <v>115557</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1715108849554351</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.142909194322226</v>
+        <v>0.1436788969255082</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2071181371868876</v>
+        <v>0.2044825205719291</v>
       </c>
     </row>
     <row r="49">
@@ -8048,19 +8048,19 @@
         <v>144199</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>126500</v>
+        <v>126357</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>162729</v>
+        <v>162585</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4397467658770045</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3857718395474637</v>
+        <v>0.3853366520921195</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4962572663721042</v>
+        <v>0.4958162901255701</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>96</v>
@@ -8069,19 +8069,19 @@
         <v>99719</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>86033</v>
+        <v>85779</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>116066</v>
+        <v>114381</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4203873245702163</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3626897454675434</v>
+        <v>0.3616218633311952</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4893020503030458</v>
+        <v>0.4821988048906834</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>236</v>
@@ -8090,19 +8090,19 @@
         <v>243917</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>218601</v>
+        <v>221217</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>265817</v>
+        <v>266046</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4316207157597308</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3868221088958397</v>
+        <v>0.391451185430889</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4703741711867652</v>
+        <v>0.4707792359377634</v>
       </c>
     </row>
     <row r="50">
@@ -8119,19 +8119,19 @@
         <v>106941</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>89252</v>
+        <v>90790</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>124353</v>
+        <v>123719</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.326127514157319</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2721806452819129</v>
+        <v>0.2768735472803575</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3792269777963763</v>
+        <v>0.377291159068907</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>79</v>
@@ -8140,19 +8140,19 @@
         <v>82737</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>68410</v>
+        <v>68686</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>97862</v>
+        <v>97123</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3487976274896374</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2883989198492556</v>
+        <v>0.2895600105710174</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4125578402952201</v>
+        <v>0.4094453117829948</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>179</v>
@@ -8161,19 +8161,19 @@
         <v>189678</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>167325</v>
+        <v>164193</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>212599</v>
+        <v>211193</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.335643205968017</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2960876291036773</v>
+        <v>0.2905450322886239</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3762017807432335</v>
+        <v>0.3737142684013182</v>
       </c>
     </row>
     <row r="51">
@@ -8265,19 +8265,19 @@
         <v>40899</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>29614</v>
+        <v>29412</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>55787</v>
+        <v>54598</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02887694612523046</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.020908799418947</v>
+        <v>0.02076642527688913</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.03938788240732224</v>
+        <v>0.03854885768050711</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>37</v>
@@ -8286,19 +8286,19 @@
         <v>36756</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>25890</v>
+        <v>26676</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>50334</v>
+        <v>48944</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.03561658074295551</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.02508749973651922</v>
+        <v>0.02584885079074824</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.04877379438869551</v>
+        <v>0.04742747594993347</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>75</v>
@@ -8307,19 +8307,19 @@
         <v>77655</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>62047</v>
+        <v>62989</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>96209</v>
+        <v>97280</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.03171774459548342</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.02534284671010082</v>
+        <v>0.0257272808639705</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.03929607193044254</v>
+        <v>0.03973324039820558</v>
       </c>
     </row>
     <row r="53">
@@ -8336,19 +8336,19 @@
         <v>74402</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>58491</v>
+        <v>58342</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>93587</v>
+        <v>92544</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.05253096606527831</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.04129722136682868</v>
+        <v>0.04119243486667921</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.06607675721116009</v>
+        <v>0.06534066342914352</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>59</v>
@@ -8357,19 +8357,19 @@
         <v>59502</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>46124</v>
+        <v>45809</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>76265</v>
+        <v>77126</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.0576584211645247</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.04469495511897309</v>
+        <v>0.04438959652524309</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.07390196563538641</v>
+        <v>0.07473568118033042</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>128</v>
@@ -8378,19 +8378,19 @@
         <v>133904</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>112034</v>
+        <v>112495</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>157054</v>
+        <v>156774</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.05469222070717263</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.04575966787789897</v>
+        <v>0.04594783671071721</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.06414782108748218</v>
+        <v>0.06403333856937683</v>
       </c>
     </row>
     <row r="54">
@@ -8407,19 +8407,19 @@
         <v>268857</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>241524</v>
+        <v>241055</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>303390</v>
+        <v>298634</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1898256662271304</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1705272876136296</v>
+        <v>0.1701963190533299</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.214207179930209</v>
+        <v>0.2108498586725132</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>169</v>
@@ -8428,19 +8428,19 @@
         <v>173494</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>150299</v>
+        <v>150389</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>197393</v>
+        <v>198586</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1681172592030936</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1456406755623657</v>
+        <v>0.1457279960158832</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1912753813857027</v>
+        <v>0.1924314258017055</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>421</v>
@@ -8449,19 +8449,19 @@
         <v>442351</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>407278</v>
+        <v>403102</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>481809</v>
+        <v>479133</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1806754358417436</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1663499459044909</v>
+        <v>0.1646443404893149</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1967918882614424</v>
+        <v>0.1956989163398291</v>
       </c>
     </row>
     <row r="55">
@@ -8478,19 +8478,19 @@
         <v>463126</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>427544</v>
+        <v>430092</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>499960</v>
+        <v>499628</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.326988894843232</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3018659828739543</v>
+        <v>0.3036648059406429</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3529952591769845</v>
+        <v>0.3527610305467559</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>308</v>
@@ -8499,19 +8499,19 @@
         <v>310578</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>284242</v>
+        <v>284071</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>342697</v>
+        <v>340466</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3009524921016566</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2754331698440771</v>
+        <v>0.2752669285869113</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3320763160742937</v>
+        <v>0.32991507624352</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>743</v>
@@ -8520,19 +8520,19 @@
         <v>773704</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>723050</v>
+        <v>727091</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>818825</v>
+        <v>823628</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.3160143869842104</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2953250079520444</v>
+        <v>0.2969758369794389</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.3344437035518097</v>
+        <v>0.3364057415060718</v>
       </c>
     </row>
     <row r="56">
@@ -8549,19 +8549,19 @@
         <v>569052</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>530655</v>
+        <v>527290</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>606214</v>
+        <v>604048</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.4017775267391289</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3746674596194145</v>
+        <v>0.3722911090306842</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.428015330879524</v>
+        <v>0.4264861716968462</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>435</v>
@@ -8570,19 +8570,19 @@
         <v>451652</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>420115</v>
+        <v>420716</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>481834</v>
+        <v>482754</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4376552467877696</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4070948264094703</v>
+        <v>0.4076779474410165</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4669015029170532</v>
+        <v>0.4677931319248955</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>958</v>
@@ -8591,19 +8591,19 @@
         <v>1020704</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>970483</v>
+        <v>971368</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1071661</v>
+        <v>1068251</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4169002118713899</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3963876696974725</v>
+        <v>0.3967489217817723</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4377132389919408</v>
+        <v>0.436320197064621</v>
       </c>
     </row>
     <row r="57">
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10923</v>
+        <v>10301</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0566886952788214</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2674536432070086</v>
+        <v>0.2522189776724391</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9385</v>
+        <v>11349</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0314646245430849</v>
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1275416758949001</v>
+        <v>0.1542338932817164</v>
       </c>
     </row>
     <row r="5">
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2626</v>
+        <v>2619</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0160062566051894</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08021652644604918</v>
+        <v>0.07998634960840624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2827</v>
+        <v>2306</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007122106918105123</v>
@@ -9048,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03841814914538687</v>
+        <v>0.03134465975671678</v>
       </c>
     </row>
     <row r="6">
@@ -9065,19 +9065,19 @@
         <v>11257</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6121</v>
+        <v>6361</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17665</v>
+        <v>18333</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2756327378276778</v>
+        <v>0.2756327378276779</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1498654942396349</v>
+        <v>0.155739192107639</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4325225005879607</v>
+        <v>0.4488960798229328</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -9086,19 +9086,19 @@
         <v>11261</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7268</v>
+        <v>6996</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15605</v>
+        <v>15505</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3439465450919534</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2219883574560978</v>
+        <v>0.2136619881340553</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.47661776477266</v>
+        <v>0.4735605583352794</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -9107,19 +9107,19 @@
         <v>22518</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15887</v>
+        <v>15812</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29677</v>
+        <v>30324</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3060294915046904</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2159057552786382</v>
+        <v>0.2148912479218879</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4033121524541369</v>
+        <v>0.4121128267213591</v>
       </c>
     </row>
     <row r="7">
@@ -9136,19 +9136,19 @@
         <v>27269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20102</v>
+        <v>19863</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33105</v>
+        <v>33300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6676785668935008</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4922062014508217</v>
+        <v>0.4863377205353013</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8105787412973238</v>
+        <v>0.8153652752531352</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -9157,19 +9157,19 @@
         <v>20956</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16569</v>
+        <v>16718</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24968</v>
+        <v>25213</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6400471983028573</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5060691624394573</v>
+        <v>0.5106000511331781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7625985758444274</v>
+        <v>0.7700787626750902</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -9178,19 +9178,19 @@
         <v>48224</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39959</v>
+        <v>39931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54721</v>
+        <v>55327</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6553837770341198</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5430511482915898</v>
+        <v>0.5426696122159257</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7436694706313586</v>
+        <v>0.7519067752999579</v>
       </c>
     </row>
     <row r="8">
@@ -9332,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5699</v>
+        <v>5771</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01920676324988815</v>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1100300436566028</v>
+        <v>0.1114277104212102</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3327</v>
+        <v>4079</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01635448794616018</v>
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07728911861798177</v>
+        <v>0.09475548508456794</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6443</v>
+        <v>5662</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01791216266827459</v>
@@ -9383,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.067942744585515</v>
+        <v>0.05970612711685565</v>
       </c>
     </row>
     <row r="11">
@@ -9400,19 +9400,19 @@
         <v>7002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2726</v>
+        <v>2683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15219</v>
+        <v>14263</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.135188107513708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05263807345969247</v>
+        <v>0.05180481927578128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2938632167234274</v>
+        <v>0.2753863710508681</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -9421,19 +9421,19 @@
         <v>3629</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1373</v>
+        <v>718</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8962</v>
+        <v>9065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08431133581294359</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03189923457629767</v>
+        <v>0.0166900317168901</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2082101794458748</v>
+        <v>0.2106066016980817</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -9442,19 +9442,19 @@
         <v>10631</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5220</v>
+        <v>5019</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19261</v>
+        <v>19441</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1120959823782615</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0550402757432364</v>
+        <v>0.05292030465517466</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2030969851613623</v>
+        <v>0.2049955585529117</v>
       </c>
     </row>
     <row r="12">
@@ -9471,19 +9471,19 @@
         <v>13736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7067</v>
+        <v>6937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22443</v>
+        <v>22351</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2652288626784988</v>
+        <v>0.2652288626784989</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1364441013253696</v>
+        <v>0.1339477329237281</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.43333273181115</v>
+        <v>0.4315593430876745</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -9492,19 +9492,19 @@
         <v>13891</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9112</v>
+        <v>8765</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19898</v>
+        <v>19912</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3227256278639775</v>
+        <v>0.3227256278639774</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2116792647705446</v>
+        <v>0.2036216219357649</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4622699281677324</v>
+        <v>0.4626074869221355</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -9513,19 +9513,19 @@
         <v>27628</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19317</v>
+        <v>19509</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38074</v>
+        <v>37629</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2913256933570558</v>
+        <v>0.2913256933570559</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2036904106304081</v>
+        <v>0.2057152892795598</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4014760267667038</v>
+        <v>0.3967838679642504</v>
       </c>
     </row>
     <row r="13">
@@ -9542,19 +9542,19 @@
         <v>11139</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4639</v>
+        <v>4357</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20636</v>
+        <v>20927</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2150675358821221</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08956274965417646</v>
+        <v>0.08413360315874144</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3984495283748062</v>
+        <v>0.4040723295112623</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -9563,19 +9563,19 @@
         <v>6152</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2966</v>
+        <v>3032</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11091</v>
+        <v>11720</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1429252517940541</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06890410582861455</v>
+        <v>0.0704386301684115</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2576577783919899</v>
+        <v>0.2722877104131614</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -9584,19 +9584,19 @@
         <v>17291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9646</v>
+        <v>9645</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29370</v>
+        <v>27802</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1823233464214224</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1017164514690259</v>
+        <v>0.1017058458061685</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3096961954075782</v>
+        <v>0.2931649845247233</v>
       </c>
     </row>
     <row r="14">
@@ -9613,19 +9613,19 @@
         <v>18920</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11600</v>
+        <v>11270</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28121</v>
+        <v>27680</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.365308730675783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2239705946201495</v>
+        <v>0.2175978604595196</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5429668580499852</v>
+        <v>0.534465202114406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -9634,19 +9634,19 @@
         <v>18667</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12929</v>
+        <v>12746</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24411</v>
+        <v>24898</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4336832965828648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3003685158405742</v>
+        <v>0.2961044614619013</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5671262211804136</v>
+        <v>0.5784229849301412</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -9655,19 +9655,19 @@
         <v>37587</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27440</v>
+        <v>27377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49219</v>
+        <v>49997</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3963428151749855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2893424516407724</v>
+        <v>0.2886753204873165</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5189968352959005</v>
+        <v>0.5272044017270764</v>
       </c>
     </row>
     <row r="15">
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7101</v>
+        <v>6685</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07135265550840561</v>
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2465070615601994</v>
+        <v>0.232064235212375</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -9780,19 +9780,19 @@
         <v>2645</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6197</v>
+        <v>5866</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09116796226881498</v>
+        <v>0.091167962268815</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0224842648467867</v>
+        <v>0.021765920284452</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2136418579754084</v>
+        <v>0.2022255084397867</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -9801,19 +9801,19 @@
         <v>4700</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2034</v>
+        <v>1897</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9833</v>
+        <v>9814</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08129494887472369</v>
+        <v>0.08129494887472367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03517887731476509</v>
+        <v>0.03280859925490315</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1700857589926238</v>
+        <v>0.1697497121320748</v>
       </c>
     </row>
     <row r="17">
@@ -9830,19 +9830,19 @@
         <v>5818</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2565</v>
+        <v>2409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12083</v>
+        <v>11695</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2019736907428159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08904799742734706</v>
+        <v>0.08363670895577875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4194600201229142</v>
+        <v>0.4060037001221029</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4266</v>
+        <v>4396</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04549403568922703</v>
@@ -9863,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1470651732363921</v>
+        <v>0.151556045325788</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -9872,19 +9872,19 @@
         <v>7137</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13388</v>
+        <v>13400</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1234603144315581</v>
+        <v>0.123460314431558</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05645772074462625</v>
+        <v>0.05653405219714264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2315819452812475</v>
+        <v>0.2317900295635166</v>
       </c>
     </row>
     <row r="18">
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8144</v>
+        <v>7792</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08309244863896238</v>
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2827392164758178</v>
+        <v>0.270492476970059</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -9922,19 +9922,19 @@
         <v>2031</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5161</v>
+        <v>5589</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07003442758584408</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02157663631421235</v>
+        <v>0.02194086343273681</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1779158717798826</v>
+        <v>0.1926789219314293</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -9943,19 +9943,19 @@
         <v>4425</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1735</v>
+        <v>1383</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10037</v>
+        <v>9738</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07654061082673883</v>
+        <v>0.07654061082673881</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03000356621393178</v>
+        <v>0.02391398973726964</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1736077045486225</v>
+        <v>0.1684444923021194</v>
       </c>
     </row>
     <row r="19">
@@ -9972,19 +9972,19 @@
         <v>4792</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1507</v>
+        <v>1314</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10012</v>
+        <v>10870</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1663680850938839</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05230554210633039</v>
+        <v>0.04563135411312132</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3475707964292904</v>
+        <v>0.37738060425044</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -9993,19 +9993,19 @@
         <v>7086</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3448</v>
+        <v>3755</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12341</v>
+        <v>12385</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2443025492655836</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1188847265317655</v>
+        <v>0.129436019848642</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4254570639276908</v>
+        <v>0.426965003186921</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -10014,19 +10014,19 @@
         <v>11879</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6899</v>
+        <v>6604</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19053</v>
+        <v>18846</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2054715577532107</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1193422458578616</v>
+        <v>0.1142255838193453</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3295735637497755</v>
+        <v>0.3259959577278655</v>
       </c>
     </row>
     <row r="20">
@@ -10043,19 +10043,19 @@
         <v>13746</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8975</v>
+        <v>8496</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19921</v>
+        <v>19041</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4772131200159322</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3115921130164052</v>
+        <v>0.2949456595219309</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6915887506859691</v>
+        <v>0.6610248108444039</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -10064,19 +10064,19 @@
         <v>15925</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11442</v>
+        <v>10816</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20584</v>
+        <v>20302</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5490010251905304</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3944485902273256</v>
+        <v>0.3728819333278701</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7096281623525438</v>
+        <v>0.699912101113529</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>36</v>
@@ -10085,19 +10085,19 @@
         <v>29671</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22538</v>
+        <v>23286</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36290</v>
+        <v>37520</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5132325681137689</v>
+        <v>0.5132325681137688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3898584805058178</v>
+        <v>0.4027892068076855</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6277175518088405</v>
+        <v>0.6489922924486052</v>
       </c>
     </row>
     <row r="21">
@@ -10189,19 +10189,19 @@
         <v>9067</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3123</v>
+        <v>3210</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19317</v>
+        <v>18786</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1293730417521272</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04456076071462115</v>
+        <v>0.04580216960808214</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2756276496508993</v>
+        <v>0.2680556254877432</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -10210,19 +10210,19 @@
         <v>5796</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2285</v>
+        <v>2423</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13299</v>
+        <v>12608</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1228672607471817</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04843546144435225</v>
+        <v>0.05135837850758833</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.281905731943792</v>
+        <v>0.2672527781151217</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -10231,19 +10231,19 @@
         <v>14863</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7721</v>
+        <v>7518</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27175</v>
+        <v>25553</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1267556517009281</v>
+        <v>0.126755651700928</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06584400281060558</v>
+        <v>0.06411080080795113</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2317514114765148</v>
+        <v>0.2179183271078638</v>
       </c>
     </row>
     <row r="23">
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5317</v>
+        <v>4700</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01240506840210557</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07586242097740964</v>
+        <v>0.06706395141968438</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -10281,19 +10281,19 @@
         <v>4177</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1289</v>
+        <v>1654</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8488</v>
+        <v>8554</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08853420174992768</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02732538730128103</v>
+        <v>0.03506630115433582</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1799282416177799</v>
+        <v>0.1813268626006065</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -10302,19 +10302,19 @@
         <v>5046</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2142</v>
+        <v>2262</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10576</v>
+        <v>10709</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.04303315687903621</v>
+        <v>0.0430331568790362</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01826358557002476</v>
+        <v>0.01928938886614711</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09019277990429835</v>
+        <v>0.09132543672922505</v>
       </c>
     </row>
     <row r="24">
@@ -10331,19 +10331,19 @@
         <v>8411</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3178</v>
+        <v>3228</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19009</v>
+        <v>18405</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1200080045247313</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04534965086388213</v>
+        <v>0.04606199618240508</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2712311169597768</v>
+        <v>0.2626100828241927</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -10352,19 +10352,19 @@
         <v>4791</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1623</v>
+        <v>2017</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9767</v>
+        <v>9851</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1015571648027814</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03441305096665189</v>
+        <v>0.042762505137753</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2070396730754097</v>
+        <v>0.2088202144124255</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -10373,19 +10373,19 @@
         <v>13202</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7130</v>
+        <v>6647</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23611</v>
+        <v>23916</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.112584907391921</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06080703558499304</v>
+        <v>0.05668668991029236</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2013535195615964</v>
+        <v>0.2039585024893489</v>
       </c>
     </row>
     <row r="25">
@@ -10402,19 +10402,19 @@
         <v>10428</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4110</v>
+        <v>4063</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20219</v>
+        <v>20057</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1487906681375784</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05865015928117074</v>
+        <v>0.05797296419075298</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2885056352078792</v>
+        <v>0.2861847078895138</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -10423,19 +10423,19 @@
         <v>5274</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1456</v>
+        <v>1480</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16127</v>
+        <v>16385</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1117889522050712</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03087078244962192</v>
+        <v>0.03137551482576851</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3418462871967096</v>
+        <v>0.3473136166231591</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -10444,19 +10444,19 @@
         <v>15701</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7260</v>
+        <v>7651</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28398</v>
+        <v>28727</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1339042274342375</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06191467289160346</v>
+        <v>0.06524941539554092</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2421782828609838</v>
+        <v>0.244983329154511</v>
       </c>
     </row>
     <row r="26">
@@ -10473,19 +10473,19 @@
         <v>41309</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28568</v>
+        <v>29730</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51909</v>
+        <v>52573</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5894232171834574</v>
+        <v>0.5894232171834572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4076278361031762</v>
+        <v>0.4242158329901337</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7406786007242008</v>
+        <v>0.7501520353382579</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -10494,19 +10494,19 @@
         <v>27138</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19716</v>
+        <v>19685</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34246</v>
+        <v>33856</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.575252420495038</v>
+        <v>0.5752524204950379</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4179384367365229</v>
+        <v>0.4172730053761252</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7259443696052095</v>
+        <v>0.7176726541243933</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>45</v>
@@ -10515,19 +10515,19 @@
         <v>68447</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>54152</v>
+        <v>54587</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>81624</v>
+        <v>82783</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5837220565938772</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.461813506453406</v>
+        <v>0.4655225014050152</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6960987000113091</v>
+        <v>0.7059858925160933</v>
       </c>
     </row>
     <row r="27">
@@ -10669,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5112</v>
+        <v>4749</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06680728825216455</v>
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2305463352928981</v>
+        <v>0.2141875022246801</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -10703,16 +10703,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4542</v>
+        <v>4815</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.03260010051736622</v>
+        <v>0.03260010051736621</v>
       </c>
       <c r="V29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09997131122059924</v>
+        <v>0.1059666866424703</v>
       </c>
     </row>
     <row r="30">
@@ -10729,19 +10729,19 @@
         <v>5968</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2232</v>
+        <v>2466</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10518</v>
+        <v>10868</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2691550555696686</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1006571942271446</v>
+        <v>0.11120746274824</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4743937244761516</v>
+        <v>0.4901560547502515</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -10753,16 +10753,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5002</v>
+        <v>6569</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.06040231359991769</v>
+        <v>0.0604023135999177</v>
       </c>
       <c r="O30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2150025401590966</v>
+        <v>0.2823727946081451</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -10771,19 +10771,19 @@
         <v>7373</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3810</v>
+        <v>3617</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>13377</v>
+        <v>13438</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.162267851769987</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08385229949767475</v>
+        <v>0.07961038955314124</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2944041799838943</v>
+        <v>0.2957529307308917</v>
       </c>
     </row>
     <row r="31">
@@ -10800,19 +10800,19 @@
         <v>2404</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6317</v>
+        <v>6396</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1084301811359352</v>
+        <v>0.1084301811359351</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0326595928327954</v>
+        <v>0.03256564408845728</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2849286639599325</v>
+        <v>0.2884857636244316</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -10821,19 +10821,19 @@
         <v>5082</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2153</v>
+        <v>2191</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9680</v>
+        <v>9317</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2184228704356389</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09253196936686199</v>
+        <v>0.09418257618608443</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4160777241269764</v>
+        <v>0.4004549799219159</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -10842,19 +10842,19 @@
         <v>7486</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4024</v>
+        <v>3718</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12772</v>
+        <v>13446</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1647494940547379</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08857083537639725</v>
+        <v>0.08183146383006264</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2810942316317709</v>
+        <v>0.2959252332829143</v>
       </c>
     </row>
     <row r="32">
@@ -10871,19 +10871,19 @@
         <v>12319</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8287</v>
+        <v>8093</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16975</v>
+        <v>16693</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5556074750422316</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3737505962223537</v>
+        <v>0.364992455809674</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7655828426992216</v>
+        <v>0.7528645347440679</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>31</v>
@@ -10892,19 +10892,19 @@
         <v>16778</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12283</v>
+        <v>12489</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20238</v>
+        <v>19951</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7211748159644433</v>
+        <v>0.7211748159644432</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5279431802509277</v>
+        <v>0.5368341214842234</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8698918570636995</v>
+        <v>0.8575644073166303</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>47</v>
@@ -10913,19 +10913,19 @@
         <v>29097</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22481</v>
+        <v>23599</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34247</v>
+        <v>34445</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6403825536579089</v>
+        <v>0.6403825536579087</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4947631971606954</v>
+        <v>0.5193890402338078</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7537322586750875</v>
+        <v>0.7580856137062858</v>
       </c>
     </row>
     <row r="33">
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5019</v>
+        <v>5399</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03696848437694313</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1500015349817054</v>
+        <v>0.1613482987455008</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -11038,19 +11038,19 @@
         <v>1698</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4295</v>
+        <v>4488</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.08572011403575601</v>
+        <v>0.085720114035756</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0</v>
+        <v>0.02265560877499034</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2168085585167414</v>
+        <v>0.22653854412143</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -11059,19 +11059,19 @@
         <v>2935</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>635</v>
+        <v>1057</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7493</v>
+        <v>7615</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05509878069037995</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01191448536403144</v>
+        <v>0.0198459857836829</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1406586926008684</v>
+        <v>0.1429575135855309</v>
       </c>
     </row>
     <row r="35">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4290</v>
+        <v>3948</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02286504923655718</v>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.128202687969312</v>
+        <v>0.1179866666459778</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4172</v>
+        <v>4136</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01436174133113282</v>
@@ -11134,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07831720383633026</v>
+        <v>0.07764655339274926</v>
       </c>
     </row>
     <row r="36">
@@ -11151,19 +11151,19 @@
         <v>10473</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6323</v>
+        <v>5746</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16338</v>
+        <v>16073</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.313010139544857</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1889811306632808</v>
+        <v>0.1717286802600302</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4882969479661549</v>
+        <v>0.4803569791602956</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -11172,19 +11172,19 @@
         <v>6989</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3495</v>
+        <v>3946</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10813</v>
+        <v>11144</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3527859374903339</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1764287273221662</v>
+        <v>0.199184943584813</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5458004643544508</v>
+        <v>0.5624980337756613</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>22</v>
@@ -11193,19 +11193,19 @@
         <v>17462</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11926</v>
+        <v>10999</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>24733</v>
+        <v>24041</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3278024040886645</v>
+        <v>0.3278024040886644</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2238716122086959</v>
+        <v>0.2064818197183745</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4642947291481831</v>
+        <v>0.451303493122655</v>
       </c>
     </row>
     <row r="37">
@@ -11222,19 +11222,19 @@
         <v>8296</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4734</v>
+        <v>4313</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13794</v>
+        <v>13426</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2479274929763987</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1414711199425509</v>
+        <v>0.1289077193681802</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.412268111287006</v>
+        <v>0.4012473131784289</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>10</v>
@@ -11243,19 +11243,19 @@
         <v>7558</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4047</v>
+        <v>4183</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11217</v>
+        <v>11484</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.3814879468655258</v>
+        <v>0.3814879468655257</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2043012910677669</v>
+        <v>0.2111365161454217</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5662125218228109</v>
+        <v>0.5796666088624348</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>20</v>
@@ -11264,19 +11264,19 @@
         <v>15853</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10481</v>
+        <v>10359</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>22233</v>
+        <v>22557</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2975974347140131</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1967476557342769</v>
+        <v>0.1944591776539734</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4173474761301446</v>
+        <v>0.4234370379396106</v>
       </c>
     </row>
     <row r="38">
@@ -11293,19 +11293,19 @@
         <v>12689</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>7283</v>
+        <v>7768</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>18426</v>
+        <v>18677</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3792288338652441</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2176485851428553</v>
+        <v>0.2321492695043802</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5506969049203138</v>
+        <v>0.5582021211935857</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5</v>
@@ -11314,19 +11314,19 @@
         <v>3566</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1281</v>
+        <v>1330</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>7380</v>
+        <v>7839</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1800060016083842</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06468459305109568</v>
+        <v>0.06713749710171277</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.372508895005326</v>
+        <v>0.3957114824761137</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>18</v>
@@ -11335,19 +11335,19 @@
         <v>16255</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10636</v>
+        <v>10365</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>22771</v>
+        <v>22743</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3051396391758097</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1996538436228041</v>
+        <v>0.1945752032768482</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4274579765083246</v>
+        <v>0.4269297520601813</v>
       </c>
     </row>
     <row r="39">
@@ -11439,19 +11439,19 @@
         <v>4382</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1105</v>
+        <v>1122</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10128</v>
+        <v>10515</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.04793389409636548</v>
+        <v>0.04793389409636546</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01208313441718995</v>
+        <v>0.01227357275963795</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1107972943945578</v>
+        <v>0.1150315998132472</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -11460,19 +11460,19 @@
         <v>3458</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1326</v>
+        <v>1351</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7956</v>
+        <v>7184</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03710163805281962</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01422720345429294</v>
+        <v>0.01448799264674232</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08534977906574601</v>
+        <v>0.07706880281382109</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>9</v>
@@ -11481,19 +11481,19 @@
         <v>7840</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3775</v>
+        <v>3605</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>14761</v>
+        <v>14272</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04246476223291899</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0204469992647537</v>
+        <v>0.01952408787052736</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07995169284520355</v>
+        <v>0.0773032122693655</v>
       </c>
     </row>
     <row r="41">
@@ -11510,19 +11510,19 @@
         <v>8146</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3381</v>
+        <v>3355</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>18014</v>
+        <v>18312</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.08911791507912088</v>
+        <v>0.08911791507912085</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03698425986209629</v>
+        <v>0.03670668274988267</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1970725657250588</v>
+        <v>0.2003258172922794</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -11531,19 +11531,19 @@
         <v>2871</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6749</v>
+        <v>6904</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.03079455763807541</v>
+        <v>0.03079455763807542</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.007790705746730079</v>
+        <v>0.007640994847968065</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07240150404600558</v>
+        <v>0.0740592811812916</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>10</v>
@@ -11552,19 +11552,19 @@
         <v>11017</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5691</v>
+        <v>5312</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>20098</v>
+        <v>20670</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05967085148667046</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03082291326554075</v>
+        <v>0.02877264434104923</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1088577841969448</v>
+        <v>0.1119557145285198</v>
       </c>
     </row>
     <row r="42">
@@ -11581,19 +11581,19 @@
         <v>15415</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9084</v>
+        <v>8083</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>26497</v>
+        <v>25343</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1686357123646728</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0993826450972974</v>
+        <v>0.08842574095571158</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2898779851663447</v>
+        <v>0.2772486100636286</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>18</v>
@@ -11602,19 +11602,19 @@
         <v>13808</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>8416</v>
+        <v>8795</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>20242</v>
+        <v>20630</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1481269258139108</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09028772977565171</v>
+        <v>0.09435079276088838</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2171521611535406</v>
+        <v>0.2213104611622394</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>30</v>
@@ -11623,19 +11623,19 @@
         <v>29223</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>20114</v>
+        <v>21291</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>40270</v>
+        <v>41416</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.158280966543074</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1089438764575486</v>
+        <v>0.1153189318133436</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2181198455766296</v>
+        <v>0.2243265088097038</v>
       </c>
     </row>
     <row r="43">
@@ -11652,19 +11652,19 @@
         <v>10910</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>5021</v>
+        <v>5407</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>20402</v>
+        <v>20581</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.119353458145736</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05492391909582087</v>
+        <v>0.05915499975931887</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2231913542206632</v>
+        <v>0.2251551150918086</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>16</v>
@@ -11673,19 +11673,19 @@
         <v>13699</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>8341</v>
+        <v>8349</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>22238</v>
+        <v>22245</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1469601234737204</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08948559015531875</v>
+        <v>0.08956174519553012</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2385655011524109</v>
+        <v>0.2386371155300925</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>24</v>
@@ -11694,19 +11694,19 @@
         <v>24609</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>15610</v>
+        <v>15766</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>35490</v>
+        <v>35434</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.133291874333631</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.08454974791431642</v>
+        <v>0.08539219808131938</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1922279081322905</v>
+        <v>0.1919223664310644</v>
       </c>
     </row>
     <row r="44">
@@ -11723,19 +11723,19 @@
         <v>52556</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>41293</v>
+        <v>40530</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>63507</v>
+        <v>62402</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.5749590203141048</v>
+        <v>0.5749590203141047</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4517394075943191</v>
+        <v>0.4433945063274917</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6947546271111672</v>
+        <v>0.6826628224270461</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>72</v>
@@ -11744,19 +11744,19 @@
         <v>59380</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>50596</v>
+        <v>50205</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>67818</v>
+        <v>67220</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.6370167550214736</v>
+        <v>0.6370167550214738</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5427795979711264</v>
+        <v>0.5385917734576047</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7275402830380547</v>
+        <v>0.7211242169054097</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>115</v>
@@ -11765,19 +11765,19 @@
         <v>111937</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>97943</v>
+        <v>97376</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>124988</v>
+        <v>125255</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.6062915454037054</v>
+        <v>0.6062915454037056</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5304987502736845</v>
+        <v>0.5274257924794168</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6769809443768661</v>
+        <v>0.6784299991006565</v>
       </c>
     </row>
     <row r="45">
@@ -11869,19 +11869,19 @@
         <v>8108</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3006</v>
+        <v>2941</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>16992</v>
+        <v>16023</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.05922627975121256</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02196027051926602</v>
+        <v>0.02148521770908299</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1241252087126832</v>
+        <v>0.1170482176959067</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -11890,19 +11890,19 @@
         <v>3286</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>7562</v>
+        <v>7267</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03258544080935549</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.007591423505226484</v>
+        <v>0.007615727428302704</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.07498815718846107</v>
+        <v>0.07206427385269416</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>10</v>
@@ -11911,19 +11911,19 @@
         <v>11394</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>5644</v>
+        <v>5868</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>20301</v>
+        <v>20719</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.04792601946287608</v>
+        <v>0.04792601946287606</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02374222386391305</v>
+        <v>0.02468180227886712</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08539332296336974</v>
+        <v>0.0871502292028372</v>
       </c>
     </row>
     <row r="47">
@@ -11940,19 +11940,19 @@
         <v>4670</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1138</v>
+        <v>1150</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>10997</v>
+        <v>11014</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03411702914318088</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.008316020168804457</v>
+        <v>0.008404062169674447</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.08032839367394115</v>
+        <v>0.08045520998508862</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>5</v>
@@ -11961,19 +11961,19 @@
         <v>4341</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1676</v>
+        <v>1653</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9887</v>
+        <v>9166</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04304828085540145</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01661759690474006</v>
+        <v>0.01638938860842702</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0980483028863607</v>
+        <v>0.09089944748025645</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>9</v>
@@ -11982,19 +11982,19 @@
         <v>9011</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4279</v>
+        <v>4121</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>16150</v>
+        <v>16715</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.03790540342332315</v>
+        <v>0.03790540342332313</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01799995710475602</v>
+        <v>0.01733525132014899</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06793099363391851</v>
+        <v>0.07030877654651074</v>
       </c>
     </row>
     <row r="48">
@@ -12011,19 +12011,19 @@
         <v>23287</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>14213</v>
+        <v>15352</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>33485</v>
+        <v>33906</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1701083537209553</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1038231264973472</v>
+        <v>0.112146078261436</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2446006787513958</v>
+        <v>0.247679699308176</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>18</v>
@@ -12032,19 +12032,19 @@
         <v>14712</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>9541</v>
+        <v>9329</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>22140</v>
+        <v>21424</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1458923011390846</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.09461206276419913</v>
+        <v>0.0925080859390115</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2195563601919045</v>
+        <v>0.2124573411244129</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>37</v>
@@ -12053,19 +12053,19 @@
         <v>37999</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>26783</v>
+        <v>27354</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>50528</v>
+        <v>49870</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1598366164859376</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.112660859705632</v>
+        <v>0.1150592476512751</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2125407111488533</v>
+        <v>0.2097720199943018</v>
       </c>
     </row>
     <row r="49">
@@ -12082,19 +12082,19 @@
         <v>42041</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>30968</v>
+        <v>30733</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>53768</v>
+        <v>54002</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3071058915161781</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2262204587132261</v>
+        <v>0.2245035693697486</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3927652447392017</v>
+        <v>0.394476528457627</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>42</v>
@@ -12103,19 +12103,19 @@
         <v>35477</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>27146</v>
+        <v>27388</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>45398</v>
+        <v>44321</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.3518113649165656</v>
+        <v>0.3518113649165654</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2692013316896881</v>
+        <v>0.2716020805265481</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4501991180871358</v>
+        <v>0.4395141658150012</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>77</v>
@@ -12124,19 +12124,19 @@
         <v>77518</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>63069</v>
+        <v>62861</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>91481</v>
+        <v>92767</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.3260686384041509</v>
+        <v>0.3260686384041507</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2652893647624391</v>
+        <v>0.2644150389425919</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3848029910596749</v>
+        <v>0.3902103809012337</v>
       </c>
     </row>
     <row r="50">
@@ -12153,19 +12153,19 @@
         <v>58789</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>46302</v>
+        <v>46589</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>72641</v>
+        <v>71457</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.429442445868473</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3382291105028133</v>
+        <v>0.3403271087956209</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5306331504364439</v>
+        <v>0.5219806228280767</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>51</v>
@@ -12174,19 +12174,19 @@
         <v>43025</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>34252</v>
+        <v>34431</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>52912</v>
+        <v>53060</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.426662612279593</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3396620581853038</v>
+        <v>0.3414413993230648</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.5247165623864249</v>
+        <v>0.5261804096261471</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>98</v>
@@ -12195,19 +12195,19 @@
         <v>101813</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>85224</v>
+        <v>87195</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>116932</v>
+        <v>118338</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.4282633222237124</v>
+        <v>0.4282633222237123</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3584820030315543</v>
+        <v>0.3667752676734014</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4918565067535237</v>
+        <v>0.4977729209040158</v>
       </c>
     </row>
     <row r="51">
@@ -12299,19 +12299,19 @@
         <v>28159</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>18392</v>
+        <v>17569</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>43011</v>
+        <v>43014</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.05922420119547753</v>
+        <v>0.05922420119547752</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.03868347905459252</v>
+        <v>0.03695092051802983</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.09046188513614706</v>
+        <v>0.09046835383817019</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>23</v>
@@ -12320,19 +12320,19 @@
         <v>17587</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>10867</v>
+        <v>11153</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>26254</v>
+        <v>26240</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.04520025643101441</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.02792762959625171</v>
+        <v>0.02866465735229232</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.06747420933252107</v>
+        <v>0.0674377234329528</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>44</v>
@@ -12341,19 +12341,19 @@
         <v>45746</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>33617</v>
+        <v>32438</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>63486</v>
+        <v>60912</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.05291262753039017</v>
+        <v>0.05291262753039016</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.03888407957055857</v>
+        <v>0.03751986277534577</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.07343217452414853</v>
+        <v>0.07045473934008091</v>
       </c>
     </row>
     <row r="53">
@@ -12370,19 +12370,19 @@
         <v>28752</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>19135</v>
+        <v>18782</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>41409</v>
+        <v>40513</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.06047183350870602</v>
+        <v>0.06047183350870601</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.04024578027993756</v>
+        <v>0.03950246790123478</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.08709340671378206</v>
+        <v>0.08520767903383127</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>22</v>
@@ -12391,19 +12391,19 @@
         <v>16861</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>10561</v>
+        <v>10424</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>26076</v>
+        <v>24730</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.0433333197663259</v>
+        <v>0.04333331976632589</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.027143003354262</v>
+        <v>0.02679088506928975</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.06701670270562506</v>
+        <v>0.06355745191656019</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>47</v>
@@ -12412,19 +12412,19 @@
         <v>45613</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>33526</v>
+        <v>32916</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>61694</v>
+        <v>59835</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.05275852646051719</v>
+        <v>0.05275852646051718</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.03877842722877601</v>
+        <v>0.03807221862375765</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.07135923200697571</v>
+        <v>0.06920911368571053</v>
       </c>
     </row>
     <row r="54">
@@ -12441,19 +12441,19 @@
         <v>90941</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>72798</v>
+        <v>73639</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>112612</v>
+        <v>111158</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.1912698097707157</v>
+        <v>0.1912698097707156</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1531110391834279</v>
+        <v>0.1548806971208697</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2368496857280536</v>
+        <v>0.2337927804901988</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>94</v>
@@ -12462,19 +12462,19 @@
         <v>68889</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>56963</v>
+        <v>55588</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>84341</v>
+        <v>83739</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1770470434019508</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.146396342873273</v>
+        <v>0.1428626872443986</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2167586541615323</v>
+        <v>0.2152113936282075</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>173</v>
@@ -12483,19 +12483,19 @@
         <v>159829</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>135558</v>
+        <v>136707</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>182252</v>
+        <v>187596</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1848687550628235</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1567955028650357</v>
+        <v>0.1581235853801114</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2108046300575757</v>
+        <v>0.216985772712951</v>
       </c>
     </row>
     <row r="55">
@@ -12512,19 +12512,19 @@
         <v>117278</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>98186</v>
+        <v>96792</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>141034</v>
+        <v>139294</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2466644475748124</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2065092582514643</v>
+        <v>0.2035772037046599</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2966287099569562</v>
+        <v>0.29296887247556</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>130</v>
@@ -12533,19 +12533,19 @@
         <v>101283</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>86419</v>
+        <v>86241</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>117992</v>
+        <v>119530</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.260301062576084</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2221006870900531</v>
+        <v>0.2216428527007496</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3032450745050774</v>
+        <v>0.307196183618936</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>230</v>
@@ -12554,19 +12554,19 @@
         <v>218561</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>194274</v>
+        <v>194232</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>246451</v>
+        <v>246335</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.2528017007919715</v>
+        <v>0.2528017007919714</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2247100197717657</v>
+        <v>0.2246605254502591</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2850609396269039</v>
+        <v>0.2849262257093583</v>
       </c>
     </row>
     <row r="56">
@@ -12583,19 +12583,19 @@
         <v>210328</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>184549</v>
+        <v>187953</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>233290</v>
+        <v>238349</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.4423697079502884</v>
+        <v>0.4423697079502883</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3881504140373901</v>
+        <v>0.3953110375202726</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4906638836687826</v>
+        <v>0.5013049183329187</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>230</v>
@@ -12604,19 +12604,19 @@
         <v>184479</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>164921</v>
+        <v>167435</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>201826</v>
+        <v>204110</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.474118317824625</v>
+        <v>0.4741183178246249</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4238548369446662</v>
+        <v>0.4303141897079129</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.5187015742181471</v>
+        <v>0.5245710167074042</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>394</v>
@@ -12625,19 +12625,19 @@
         <v>394807</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>365678</v>
+        <v>362990</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>426638</v>
+        <v>426021</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.4566583901542979</v>
+        <v>0.4566583901542977</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.4229661066336651</v>
+        <v>0.4198572154852173</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4934759370312793</v>
+        <v>0.4927623391062988</v>
       </c>
     </row>
     <row r="57">
